--- a/Assets/RefData/Excels/kidgame_game_data_config.xlsx
+++ b/Assets/RefData/Excels/kidgame_game_data_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10500" tabRatio="905" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="10500" tabRatio="905" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TrapDataList" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="255">
   <si>
     <t>id</t>
   </si>
@@ -191,7 +191,7 @@
     <t>Immediate</t>
   </si>
   <si>
-    <t>1.音效配置so在Resources下的AudioDataList，这里的填写名只需要填里面单个配置的名字字段，不是路径</t>
+    <t>1.音效配置so在Resources下的AudioDataList，这里的填写名只需要填里面单个配置的AudioName，不是路径</t>
   </si>
   <si>
     <t>T002</t>
@@ -206,7 +206,7 @@
     <t>Negative</t>
   </si>
   <si>
-    <t>2.特效配置so在Resources下的ParticleDataList，这里的填写名只需要填里面单个配置的名字字段，不是路径</t>
+    <t>2.特效配置so在Resources下的ParticleDataList，这里的填写名只需要填里面单个配置的Particle，不是路径</t>
   </si>
   <si>
     <t>T003</t>
@@ -379,6 +379,9 @@
     <t>装满水的桶</t>
   </si>
   <si>
+    <t>3.陷阱图标路径一般是GUI/Icon/Material/xxxx,可以去unity里面一下名字替换xxxx</t>
+  </si>
+  <si>
     <t>M004</t>
   </si>
   <si>
@@ -495,6 +498,9 @@
     <t>可作为陷阱装置的载体，或者洗掉衣服上的痕迹</t>
   </si>
   <si>
+    <t>这个表暂时还没搞好，因为要配置占地面积，还没有方法转化</t>
+  </si>
+  <si>
     <t>F002</t>
   </si>
   <si>
@@ -540,70 +546,64 @@
     <t>F010</t>
   </si>
   <si>
-    <t>B001</t>
-  </si>
-  <si>
-    <t>洗衣房</t>
-  </si>
-  <si>
-    <t>B002</t>
-  </si>
-  <si>
-    <t>储藏室</t>
-  </si>
-  <si>
-    <t>B003</t>
-  </si>
-  <si>
-    <t>车库</t>
-  </si>
-  <si>
-    <t>B004</t>
-  </si>
-  <si>
-    <t>客厅</t>
-  </si>
-  <si>
-    <t>B005</t>
-  </si>
-  <si>
-    <t>书房</t>
-  </si>
-  <si>
-    <t>B006</t>
-  </si>
-  <si>
-    <t>浴室</t>
-  </si>
-  <si>
-    <t>B007</t>
-  </si>
-  <si>
-    <t>主卧</t>
-  </si>
-  <si>
-    <t>B008</t>
-  </si>
-  <si>
-    <t>宝宝房</t>
-  </si>
-  <si>
-    <t>B009</t>
-  </si>
-  <si>
-    <t>餐厅/厨房</t>
-  </si>
-  <si>
-    <t>B010</t>
-  </si>
-  <si>
-    <t>阁楼</t>
-  </si>
-  <si>
-    <t>B011</t>
-  </si>
-  <si>
-    <t>后院</t>
+    <t>roomType</t>
+  </si>
+  <si>
+    <t>materialIdList</t>
+  </si>
+  <si>
+    <t>#id</t>
+  </si>
+  <si>
+    <t>#房间类型</t>
+  </si>
+  <si>
+    <t>#包含的材料列表(散落的）</t>
+  </si>
+  <si>
+    <t>1.不需要配房间里有的家具，因为地图是地图编辑器做的，家具是自己摆的，不是随机生成的</t>
+  </si>
+  <si>
+    <t>R001</t>
+  </si>
+  <si>
+    <t>Corridor</t>
+  </si>
+  <si>
+    <t>R002</t>
+  </si>
+  <si>
+    <t>Bedroom</t>
+  </si>
+  <si>
+    <t>R003</t>
+  </si>
+  <si>
+    <t>LivingRoom</t>
+  </si>
+  <si>
+    <t>R004</t>
+  </si>
+  <si>
+    <t>DinningRoom</t>
+  </si>
+  <si>
+    <t>R005</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>R006</t>
+  </si>
+  <si>
+    <t>NurseryRoom</t>
+  </si>
+  <si>
+    <t>R007</t>
+  </si>
+  <si>
+    <t>BathRoom</t>
   </si>
   <si>
     <t>合成目标id</t>
@@ -642,7 +642,7 @@
     <t>buffName</t>
   </si>
   <si>
-    <t>icon</t>
+    <t>iconPath</t>
   </si>
   <si>
     <t xml:space="preserve"> priority</t>
@@ -661,6 +661,27 @@
   </si>
   <si>
     <t>tickTime</t>
+  </si>
+  <si>
+    <t>buffAddStackUpdateTime</t>
+  </si>
+  <si>
+    <t>buffRemoveStackUpdate</t>
+  </si>
+  <si>
+    <t>onCreateModulePath</t>
+  </si>
+  <si>
+    <t>onRemoveModulePath</t>
+  </si>
+  <si>
+    <t>onTickModulePath</t>
+  </si>
+  <si>
+    <t>onHitModulePath</t>
+  </si>
+  <si>
+    <t>onBeHurtModulePath</t>
   </si>
   <si>
     <t>#buffid</t>
@@ -753,7 +774,28 @@
     <t>#触发间隔</t>
   </si>
   <si>
-    <t>D001</t>
+    <t>#buff添加新的层数时的时间更新方式</t>
+  </si>
+  <si>
+    <t>#buff移除时的更新方式</t>
+  </si>
+  <si>
+    <t>#buff创建时的效果模块路径</t>
+  </si>
+  <si>
+    <t>#buff移除时的效果模块路径</t>
+  </si>
+  <si>
+    <t>#buff间隔生效时的效果模块路径</t>
+  </si>
+  <si>
+    <t>#攻击时的效果模块</t>
+  </si>
+  <si>
+    <t>#受击时的效果模块</t>
+  </si>
+  <si>
+    <t>B001</t>
   </si>
   <si>
     <t>blind</t>
@@ -768,7 +810,10 @@
     <t>move</t>
   </si>
   <si>
-    <t>D002</t>
+    <t>1.MoudlePath配置路径一般是Game/BuffModuleData/xxxx,可以去unity里面看一下名字替换xxxx,没有就不用填</t>
+  </si>
+  <si>
+    <t>B002</t>
   </si>
   <si>
     <t xml:space="preserve">   fallingdown</t>
@@ -782,7 +827,10 @@
     <t>icon/buff/fallingdown</t>
   </si>
   <si>
-    <t>D003</t>
+    <t>2.Buff图标路径一般是GUI/Icon/Buff/xxxx,可以去unity里面看一下名字替换xxxx</t>
+  </si>
+  <si>
+    <t>B003</t>
   </si>
   <si>
     <t xml:space="preserve">   bleed</t>
@@ -797,7 +845,7 @@
     <t>sign|count</t>
   </si>
   <si>
-    <t>D004</t>
+    <t>B004</t>
   </si>
   <si>
     <t xml:space="preserve">    dizzy</t>
@@ -809,7 +857,7 @@
     <t>icon/buff/dizzy</t>
   </si>
   <si>
-    <t>D005</t>
+    <t>B005</t>
   </si>
   <si>
     <t xml:space="preserve">   coma</t>
@@ -819,18 +867,6 @@
   </si>
   <si>
     <t>icon/buff/coma</t>
-  </si>
-  <si>
-    <t>D006</t>
-  </si>
-  <si>
-    <t>D007</t>
-  </si>
-  <si>
-    <t>D008</t>
-  </si>
-  <si>
-    <t>D009</t>
   </si>
   <si>
     <t>EnemyName</t>
@@ -975,6 +1011,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -985,12 +1027,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1453,19 +1489,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1474,7 +1510,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1598,7 +1634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1610,30 +1646,41 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1645,10 +1692,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1657,17 +1704,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1991,8 +2032,8 @@
   <sheetPr/>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:V5"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2015,7 +2056,7 @@
     <col min="21" max="21" width="19.6759259259259" customWidth="1"/>
     <col min="22" max="22" width="20.787037037037" customWidth="1"/>
     <col min="23" max="23" width="14.1666666666667" customWidth="1"/>
-    <col min="24" max="24" width="13.8333333333333" style="6" customWidth="1"/>
+    <col min="24" max="24" width="13.8333333333333" style="9" customWidth="1"/>
     <col min="25" max="25" width="103.666666666667" customWidth="1"/>
     <col min="26" max="26" width="15.6666666666667" customWidth="1"/>
     <col min="27" max="27" width="16.25" customWidth="1"/>
@@ -2023,1992 +2064,1992 @@
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:28">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="22" t="s">
+      <c r="W1" s="23"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
     </row>
     <row r="2" ht="13" customHeight="1" spans="1:28">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="18"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="23" t="s">
+      <c r="W2" s="23"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="16">
         <v>30</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="16">
         <v>50</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="15">
         <v>-1</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="15">
         <v>1</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="15">
         <v>3</v>
       </c>
-      <c r="N3" s="10" t="b">
+      <c r="N3" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="23" t="s">
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15">
         <v>1</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="16">
         <v>40</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="16">
         <v>50</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="15">
         <v>-1</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="15">
         <v>1</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="15">
         <v>4</v>
       </c>
-      <c r="N4" s="10" t="b">
+      <c r="N4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="23" t="s">
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15">
         <v>1</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="16">
         <v>20</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="16">
         <v>50</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="15">
         <v>-1</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="15">
         <v>3</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="15">
         <v>1</v>
       </c>
-      <c r="N5" s="10" t="b">
+      <c r="N5" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="23" t="s">
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:32">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="26"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="29"/>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:32">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="26"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="29"/>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:32">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="26"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="29"/>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
     </row>
     <row r="13" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
     </row>
     <row r="14" ht="14.4" spans="1:28">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
     </row>
     <row r="15" ht="14.4" spans="1:28">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
     </row>
     <row r="16" ht="14.4" spans="1:28">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
     </row>
     <row r="17" ht="14.4" spans="1:28">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
     </row>
     <row r="18" ht="14.4" spans="1:28">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
     </row>
     <row r="19" ht="14.4" spans="1:28">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
     </row>
     <row r="20" ht="14.4" spans="1:28">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
     </row>
     <row r="21" ht="14.4" spans="1:28">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
     </row>
     <row r="22" ht="14.4" spans="1:28">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
     </row>
     <row r="23" ht="14.4" spans="1:28">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
     </row>
     <row r="24" ht="14.4" spans="1:28">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
     </row>
     <row r="25" ht="14.4" spans="1:28">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
     </row>
     <row r="26" ht="14.4" spans="1:28">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
     </row>
     <row r="27" ht="14.4" spans="1:28">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
     </row>
     <row r="28" ht="14.4" spans="1:28">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
     </row>
     <row r="29" ht="14.4" spans="1:28">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
     </row>
     <row r="30" ht="14.4" spans="1:28">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
     </row>
     <row r="31" ht="14.4" spans="1:28">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
     </row>
     <row r="32" ht="14.4" spans="1:28">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
     </row>
     <row r="33" ht="14.4" spans="1:28">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
     </row>
     <row r="34" ht="14.4" spans="1:28">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
     </row>
     <row r="35" ht="14.4" spans="1:28">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
     </row>
     <row r="36" ht="14.4" spans="1:28">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
     </row>
     <row r="37" ht="14.4" spans="1:28">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
     </row>
     <row r="38" ht="14.4" spans="1:28">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
     </row>
     <row r="39" ht="14.4" spans="1:28">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16"/>
-      <c r="AB39" s="16"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
     </row>
     <row r="40" ht="14.4" spans="1:28">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="16"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
     </row>
     <row r="41" ht="14.4" spans="1:28">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="16"/>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="16"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
     </row>
     <row r="42" ht="14.4" spans="1:28">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="16"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="21"/>
     </row>
     <row r="43" ht="14.4" spans="1:28">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="16"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="21"/>
     </row>
     <row r="44" ht="14.4" spans="1:28">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="16"/>
-      <c r="Z44" s="16"/>
-      <c r="AA44" s="16"/>
-      <c r="AB44" s="16"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
     </row>
     <row r="45" ht="14.4" spans="1:28">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="21"/>
     </row>
     <row r="46" ht="14.4" spans="1:28">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="16"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="26"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
     </row>
     <row r="47" ht="14.4" spans="1:28">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="16"/>
-      <c r="Z47" s="16"/>
-      <c r="AA47" s="16"/>
-      <c r="AB47" s="16"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="26"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="21"/>
     </row>
     <row r="48" ht="14.4" spans="1:28">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="16"/>
-      <c r="Z48" s="16"/>
-      <c r="AA48" s="16"/>
-      <c r="AB48" s="16"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="21"/>
     </row>
     <row r="49" ht="14.4" spans="1:28">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="16"/>
-      <c r="Z49" s="16"/>
-      <c r="AA49" s="16"/>
-      <c r="AB49" s="16"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="26"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="21"/>
     </row>
     <row r="50" ht="14.4" spans="1:28">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="16"/>
-      <c r="Z50" s="16"/>
-      <c r="AA50" s="16"/>
-      <c r="AB50" s="16"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="26"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
+      <c r="AB50" s="21"/>
     </row>
     <row r="51" ht="14.4" spans="1:28">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="16"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="16"/>
-      <c r="Z51" s="16"/>
-      <c r="AA51" s="16"/>
-      <c r="AB51" s="16"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="21"/>
+      <c r="AB51" s="21"/>
     </row>
     <row r="52" ht="14.4" spans="1:28">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="16"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="16"/>
-      <c r="AB52" s="16"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="26"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="21"/>
     </row>
     <row r="53" ht="14.4" spans="1:28">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="16"/>
-      <c r="Z53" s="16"/>
-      <c r="AA53" s="16"/>
-      <c r="AB53" s="16"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="26"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="21"/>
+      <c r="AB53" s="21"/>
     </row>
     <row r="54" ht="14.4" spans="1:28">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="16"/>
-      <c r="Z54" s="16"/>
-      <c r="AA54" s="16"/>
-      <c r="AB54" s="16"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="26"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
+      <c r="AB54" s="21"/>
     </row>
     <row r="55" ht="14.4" spans="1:28">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="16"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="16"/>
-      <c r="Z55" s="16"/>
-      <c r="AA55" s="16"/>
-      <c r="AB55" s="16"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="26"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="21"/>
     </row>
     <row r="56" ht="14.4" spans="1:28">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="16"/>
-      <c r="Z56" s="16"/>
-      <c r="AA56" s="16"/>
-      <c r="AB56" s="16"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="26"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="21"/>
     </row>
     <row r="57" ht="14.4" spans="1:28">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="16"/>
-      <c r="W57" s="16"/>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="16"/>
-      <c r="Z57" s="16"/>
-      <c r="AA57" s="16"/>
-      <c r="AB57" s="16"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
+      <c r="X57" s="26"/>
+      <c r="Y57" s="21"/>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="21"/>
+      <c r="AB57" s="21"/>
     </row>
     <row r="58" ht="14.4" spans="1:28">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="16"/>
-      <c r="W58" s="16"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="16"/>
-      <c r="Z58" s="16"/>
-      <c r="AA58" s="16"/>
-      <c r="AB58" s="16"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="26"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="21"/>
+      <c r="AA58" s="21"/>
+      <c r="AB58" s="21"/>
     </row>
     <row r="59" spans="1:28">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
-      <c r="T59" s="16"/>
-      <c r="U59" s="16"/>
-      <c r="V59" s="16"/>
-      <c r="W59" s="16"/>
-      <c r="X59" s="21"/>
-      <c r="Y59" s="16"/>
-      <c r="Z59" s="16"/>
-      <c r="AA59" s="16"/>
-      <c r="AB59" s="16"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="26"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
+      <c r="AA59" s="21"/>
+      <c r="AB59" s="21"/>
     </row>
     <row r="60" spans="1:28">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
-      <c r="V60" s="16"/>
-      <c r="W60" s="16"/>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="16"/>
-      <c r="Z60" s="16"/>
-      <c r="AA60" s="16"/>
-      <c r="AB60" s="16"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="26"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="21"/>
+      <c r="AB60" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4033,33 +4074,33 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -4067,16 +4108,16 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -4084,42 +4125,42 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4131,10 +4172,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -4144,9 +4185,10 @@
     <col min="5" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="14.4166666666667" customWidth="1"/>
     <col min="9" max="9" width="18.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:9">
+    <row r="1" ht="13" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4174,8 +4216,11 @@
       <c r="I1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:9">
+      <c r="L1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -4203,16 +4248,17 @@
       <c r="I2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:9">
+      <c r="L2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:12">
       <c r="A3" t="s">
         <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -4220,16 +4266,17 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" ht="25.5" customHeight="1" spans="1:9">
+      <c r="L3" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" spans="1:12">
       <c r="A4" t="s">
         <v>77</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
       <c r="E4" s="1">
         <v>1</v>
       </c>
@@ -4237,16 +4284,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" ht="25.5" customHeight="1" spans="1:9">
+      <c r="L4" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5" customHeight="1" spans="1:12">
       <c r="A5" t="s">
         <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>80</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
       <c r="E5" s="1">
         <v>1</v>
       </c>
@@ -4254,16 +4302,17 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
+      <c r="L5" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
+        <v>83</v>
+      </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
@@ -4274,13 +4323,11 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
+        <v>85</v>
+      </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
@@ -4291,13 +4338,11 @@
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:9">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
+        <v>87</v>
+      </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
@@ -4308,13 +4353,11 @@
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:9">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
+        <v>89</v>
+      </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
@@ -4325,13 +4368,11 @@
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:9">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
+        <v>91</v>
+      </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
@@ -4342,13 +4383,11 @@
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:9">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
+        <v>93</v>
+      </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
@@ -4359,13 +4398,11 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
+        <v>95</v>
+      </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
@@ -4376,13 +4413,11 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
+        <v>97</v>
+      </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
@@ -4393,13 +4428,11 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
+        <v>99</v>
+      </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
@@ -4444,77 +4477,77 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" ht="41.4" spans="1:4">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="C11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4540,77 +4573,77 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" ht="41.4" spans="1:4">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="C11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4621,16 +4654,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="6" max="6" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
@@ -4638,90 +4672,93 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
         <v>123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4733,113 +4770,108 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="22.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="24.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:2">
+    <row r="1" ht="13" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:2">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" customHeight="1" spans="1:2">
-      <c r="A10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1" spans="1:2">
-      <c r="A11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1" spans="1:2">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" t="s">
         <v>155</v>
       </c>
     </row>
+    <row r="10" ht="25.5" customHeight="1"/>
+    <row r="11" ht="25.5" customHeight="1"/>
+    <row r="12" ht="25.5" customHeight="1"/>
+    <row r="13" ht="25.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4920,7 +4952,7 @@
         <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -4931,7 +4963,7 @@
         <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4942,7 +4974,7 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4953,7 +4985,7 @@
         <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4964,7 +4996,7 @@
         <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4975,7 +5007,7 @@
         <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4986,7 +5018,7 @@
         <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -5077,20 +5109,29 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="36.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20.962962962963" customWidth="1"/>
+    <col min="4" max="4" width="14.6851851851852" customWidth="1"/>
+    <col min="10" max="10" width="13.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="18.6944444444444" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="22.0925925925926" customWidth="1"/>
+    <col min="14" max="14" width="25.5555555555556" customWidth="1"/>
+    <col min="15" max="15" width="16.9444444444444" customWidth="1"/>
+    <col min="16" max="16" width="24.0277777777778" customWidth="1"/>
+    <col min="17" max="17" width="21.3981481481481" customWidth="1"/>
+    <col min="19" max="19" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:10">
+    <row r="1" ht="13" customHeight="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5098,7 +5139,7 @@
         <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>163</v>
@@ -5121,137 +5162,193 @@
       <c r="J1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:10">
+      <c r="K1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>176</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="T2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:20">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3">
+        <v>198</v>
+      </c>
+      <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" ht="41.4" spans="1:9">
+      <c r="T3" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" ht="27" customHeight="1" spans="1:20">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4">
+        <v>198</v>
+      </c>
+      <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" ht="25.5" customHeight="1" spans="1:9">
+      <c r="T4" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5" customHeight="1" spans="1:20">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H5">
+        <v>209</v>
+      </c>
+      <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5">
         <v>30</v>
       </c>
+      <c r="T5" s="8"/>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
-      </c>
-      <c r="H6">
+        <v>198</v>
+      </c>
+      <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6">
@@ -5260,50 +5357,33 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H7">
+        <v>198</v>
+      </c>
+      <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>205</v>
-      </c>
-    </row>
+    <row r="8" ht="25.5" customHeight="1"/>
+    <row r="9" ht="25.5" customHeight="1"/>
+    <row r="10" ht="25.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5331,30 +5411,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C2" s="4">
         <v>100</v>
@@ -5374,47 +5454,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RefData/Excels/kidgame_game_data_config.xlsx
+++ b/Assets/RefData/Excels/kidgame_game_data_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10500" tabRatio="905" activeTab="7"/>
+    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TrapDataList" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="261">
   <si>
     <t>id</t>
   </si>
@@ -436,19 +436,64 @@
     <t>一管白胶</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>useType</t>
+  </si>
+  <si>
+    <t>maxDistance</t>
+  </si>
+  <si>
+    <t>weaponType</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>impactForce</t>
+  </si>
+  <si>
+    <t>h001</t>
+  </si>
+  <si>
+    <t>GlowBall</t>
+  </si>
+  <si>
+    <t>h002</t>
+  </si>
+  <si>
+    <t>h003</t>
+  </si>
+  <si>
+    <t>h004</t>
+  </si>
+  <si>
+    <t>h005</t>
+  </si>
+  <si>
+    <t>h006</t>
+  </si>
+  <si>
+    <t>h007</t>
+  </si>
+  <si>
+    <t>h008</t>
+  </si>
+  <si>
+    <t>h009</t>
+  </si>
+  <si>
+    <t>h010</t>
+  </si>
+  <si>
     <t>itemId</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>range</t>
   </si>
   <si>
     <t>describition</t>
-  </si>
-  <si>
-    <t>h001</t>
   </si>
   <si>
     <t>sticky_light_ball</t>
@@ -457,33 +502,6 @@
     <t>一种粘性的发光小球，
 能够粘在敌人或特定位置上，
 在黑暗环境中发光。</t>
-  </si>
-  <si>
-    <t>h002</t>
-  </si>
-  <si>
-    <t>h003</t>
-  </si>
-  <si>
-    <t>h004</t>
-  </si>
-  <si>
-    <t>h005</t>
-  </si>
-  <si>
-    <t>h006</t>
-  </si>
-  <si>
-    <t>h007</t>
-  </si>
-  <si>
-    <t>h008</t>
-  </si>
-  <si>
-    <t>h009</t>
-  </si>
-  <si>
-    <t>h010</t>
   </si>
   <si>
     <t>description</t>
@@ -1634,7 +1652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1657,7 +1675,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2036,7 +2053,7 @@
       <selection activeCell="Y1" sqref="Y1:Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -2047,14 +2064,14 @@
     <col min="12" max="12" width="12.5833333333333" customWidth="1"/>
     <col min="13" max="13" width="29.0833333333333" customWidth="1"/>
     <col min="14" max="14" width="14.1666666666667" customWidth="1"/>
-    <col min="15" max="15" width="25.8796296296296" customWidth="1"/>
-    <col min="16" max="16" width="21.1759259259259" customWidth="1"/>
+    <col min="15" max="15" width="25.8833333333333" customWidth="1"/>
+    <col min="16" max="16" width="21.175" customWidth="1"/>
     <col min="17" max="17" width="18.1666666666667" customWidth="1"/>
-    <col min="18" max="18" width="18.8148148148148" customWidth="1"/>
-    <col min="19" max="19" width="27.287037037037" customWidth="1"/>
-    <col min="20" max="20" width="20.4074074074074" customWidth="1"/>
-    <col min="21" max="21" width="19.6759259259259" customWidth="1"/>
-    <col min="22" max="22" width="20.787037037037" customWidth="1"/>
+    <col min="18" max="18" width="18.8166666666667" customWidth="1"/>
+    <col min="19" max="19" width="27.2833333333333" customWidth="1"/>
+    <col min="20" max="20" width="20.4083333333333" customWidth="1"/>
+    <col min="21" max="21" width="19.675" customWidth="1"/>
+    <col min="22" max="22" width="20.7833333333333" customWidth="1"/>
     <col min="23" max="23" width="14.1666666666667" customWidth="1"/>
     <col min="24" max="24" width="13.8333333333333" style="9" customWidth="1"/>
     <col min="25" max="25" width="103.666666666667" customWidth="1"/>
@@ -2064,1992 +2081,1992 @@
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:28">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="23"/>
-      <c r="X1" s="24"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="23"/>
       <c r="Y1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
     </row>
     <row r="2" ht="13" customHeight="1" spans="1:28">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="24"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="23"/>
       <c r="Y2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
         <v>1</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>30</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>50</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>-1</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <v>1</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <v>3</v>
       </c>
-      <c r="N3" s="15" t="b">
+      <c r="N3" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="24"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="23"/>
       <c r="Y3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14">
         <v>1</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>40</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>50</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="14">
         <v>-1</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <v>1</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="14">
         <v>4</v>
       </c>
-      <c r="N4" s="15" t="b">
+      <c r="N4" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="24"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="23"/>
       <c r="Y4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14">
         <v>1</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>20</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>50</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>-1</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>3</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <v>1</v>
       </c>
-      <c r="N5" s="15" t="b">
+      <c r="N5" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="24"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="23"/>
       <c r="Y5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="25"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="24"/>
       <c r="Y6" s="8"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:32">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="29"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="28"/>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:32">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="29"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="28"/>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:32">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="29"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="28"/>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="24"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="23"/>
       <c r="Y10" s="8"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="24"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="23"/>
       <c r="Y11" s="8"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="24"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="23"/>
       <c r="Y12" s="8"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
     </row>
     <row r="13" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="24"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="23"/>
       <c r="Y13" s="8"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-    </row>
-    <row r="14" ht="14.4" spans="1:28">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="24"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="23"/>
       <c r="Y14" s="8"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-    </row>
-    <row r="15" ht="14.4" spans="1:28">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="24"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="23"/>
       <c r="Y15" s="8"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-    </row>
-    <row r="16" ht="14.4" spans="1:28">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="24"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="23"/>
       <c r="Y16" s="8"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-    </row>
-    <row r="17" ht="14.4" spans="1:28">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="24"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="23"/>
       <c r="Y17" s="8"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-    </row>
-    <row r="18" ht="14.4" spans="1:28">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="24"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="23"/>
       <c r="Y18" s="8"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-    </row>
-    <row r="19" ht="14.4" spans="1:28">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="24"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="23"/>
       <c r="Y19" s="8"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-    </row>
-    <row r="20" ht="14.4" spans="1:28">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="24"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="23"/>
       <c r="Y20" s="8"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-    </row>
-    <row r="21" ht="14.4" spans="1:28">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="24"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="23"/>
       <c r="Y21" s="8"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-    </row>
-    <row r="22" ht="14.4" spans="1:28">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="26"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="25"/>
       <c r="Y22" s="8"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-    </row>
-    <row r="23" ht="14.4" spans="1:28">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="26"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="25"/>
       <c r="Y23" s="8"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-    </row>
-    <row r="24" ht="14.4" spans="1:28">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="26"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="25"/>
       <c r="Y24" s="8"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-    </row>
-    <row r="25" ht="14.4" spans="1:28">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="26"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="25"/>
       <c r="Y25" s="8"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-    </row>
-    <row r="26" ht="14.4" spans="1:28">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="26"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="25"/>
       <c r="Y26" s="8"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-    </row>
-    <row r="27" ht="14.4" spans="1:28">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="26"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="25"/>
       <c r="Y27" s="8"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-    </row>
-    <row r="28" ht="14.4" spans="1:28">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="26"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="25"/>
       <c r="Y28" s="8"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-    </row>
-    <row r="29" ht="14.4" spans="1:28">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="26"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="25"/>
       <c r="Y29" s="8"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-    </row>
-    <row r="30" ht="14.4" spans="1:28">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="26"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="25"/>
       <c r="Y30" s="8"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-    </row>
-    <row r="31" ht="14.4" spans="1:28">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="26"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="25"/>
       <c r="Y31" s="8"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-    </row>
-    <row r="32" ht="14.4" spans="1:28">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-    </row>
-    <row r="33" ht="14.4" spans="1:28">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-    </row>
-    <row r="34" ht="14.4" spans="1:28">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-    </row>
-    <row r="35" ht="14.4" spans="1:28">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-    </row>
-    <row r="36" ht="14.4" spans="1:28">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-    </row>
-    <row r="37" ht="14.4" spans="1:28">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-    </row>
-    <row r="38" ht="14.4" spans="1:28">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-    </row>
-    <row r="39" ht="14.4" spans="1:28">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-    </row>
-    <row r="40" ht="14.4" spans="1:28">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-    </row>
-    <row r="41" ht="14.4" spans="1:28">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-    </row>
-    <row r="42" ht="14.4" spans="1:28">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="21"/>
-    </row>
-    <row r="43" ht="14.4" spans="1:28">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="21"/>
-      <c r="AB43" s="21"/>
-    </row>
-    <row r="44" ht="14.4" spans="1:28">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="21"/>
-    </row>
-    <row r="45" ht="14.4" spans="1:28">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="21"/>
-    </row>
-    <row r="46" ht="14.4" spans="1:28">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="26"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-    </row>
-    <row r="47" ht="14.4" spans="1:28">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
-      <c r="AA47" s="21"/>
-      <c r="AB47" s="21"/>
-    </row>
-    <row r="48" ht="14.4" spans="1:28">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="26"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
-      <c r="AA48" s="21"/>
-      <c r="AB48" s="21"/>
-    </row>
-    <row r="49" ht="14.4" spans="1:28">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="26"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="21"/>
-      <c r="AB49" s="21"/>
-    </row>
-    <row r="50" ht="14.4" spans="1:28">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="26"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="21"/>
-      <c r="AB50" s="21"/>
-    </row>
-    <row r="51" ht="14.4" spans="1:28">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21"/>
-      <c r="AA51" s="21"/>
-      <c r="AB51" s="21"/>
-    </row>
-    <row r="52" ht="14.4" spans="1:28">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="26"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="21"/>
-      <c r="AA52" s="21"/>
-      <c r="AB52" s="21"/>
-    </row>
-    <row r="53" ht="14.4" spans="1:28">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="26"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="21"/>
-      <c r="AB53" s="21"/>
-    </row>
-    <row r="54" ht="14.4" spans="1:28">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="26"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
-      <c r="AA54" s="21"/>
-      <c r="AB54" s="21"/>
-    </row>
-    <row r="55" ht="14.4" spans="1:28">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="26"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
-      <c r="AA55" s="21"/>
-      <c r="AB55" s="21"/>
-    </row>
-    <row r="56" ht="14.4" spans="1:28">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="26"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="21"/>
-      <c r="AB56" s="21"/>
-    </row>
-    <row r="57" ht="14.4" spans="1:28">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="26"/>
-      <c r="Y57" s="21"/>
-      <c r="Z57" s="21"/>
-      <c r="AA57" s="21"/>
-      <c r="AB57" s="21"/>
-    </row>
-    <row r="58" ht="14.4" spans="1:28">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="26"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="21"/>
-      <c r="AA58" s="21"/>
-      <c r="AB58" s="21"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="20"/>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="20"/>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20"/>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="20"/>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="20"/>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20"/>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="20"/>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="20"/>
+      <c r="AA58" s="20"/>
+      <c r="AB58" s="20"/>
     </row>
     <row r="59" spans="1:28">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="21"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21"/>
-      <c r="W59" s="21"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="21"/>
-      <c r="AA59" s="21"/>
-      <c r="AB59" s="21"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="20"/>
+      <c r="AA59" s="20"/>
+      <c r="AB59" s="20"/>
     </row>
     <row r="60" spans="1:28">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="26"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="21"/>
-      <c r="AA60" s="21"/>
-      <c r="AB60" s="21"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="25"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="20"/>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4066,7 +4083,7 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="92.4166666666667" customWidth="1"/>
@@ -4074,33 +4091,33 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -4108,16 +4125,16 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -4125,42 +4142,42 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4174,18 +4191,18 @@
   <sheetPr/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="37.25" customWidth="1"/>
     <col min="5" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="14.4166666666667" customWidth="1"/>
     <col min="9" max="9" width="18.0833333333333" customWidth="1"/>
-    <col min="11" max="11" width="9" style="10"/>
+    <col min="11" max="11" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:12">
@@ -4462,92 +4479,110 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="29.0833333333333" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:4">
+    <row r="1" ht="13" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" ht="41.4" spans="1:4">
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>106</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="11"/>
+        <v>116</v>
+      </c>
+      <c r="C11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4564,7 +4599,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="29.0833333333333" customWidth="1"/>
@@ -4573,77 +4608,77 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" ht="41.4" spans="1:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" ht="42" spans="1:4">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="11"/>
+        <v>116</v>
+      </c>
+      <c r="C11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4656,15 +4691,15 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="9" style="10"/>
+    <col min="6" max="6" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
@@ -4672,93 +4707,93 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4776,11 +4811,11 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="22.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="24.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="22.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="24.1083333333333" customWidth="1"/>
     <col min="5" max="5" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -4789,10 +4824,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
@@ -4800,72 +4835,72 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1"/>
@@ -4887,20 +4922,20 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
@@ -4982,7 +5017,7 @@
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
         <v>90</v>
@@ -4993,7 +5028,7 @@
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -5004,7 +5039,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
         <v>94</v>
@@ -5015,7 +5050,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -5026,7 +5061,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B13" t="str">
         <f>MaterialDataList!A13</f>
@@ -5038,7 +5073,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B14" t="str">
         <f>MaterialDataList!A14</f>
@@ -5111,23 +5146,23 @@
   <sheetPr/>
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:J9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.962962962963" customWidth="1"/>
-    <col min="4" max="4" width="14.6851851851852" customWidth="1"/>
-    <col min="10" max="10" width="13.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="18.6944444444444" customWidth="1"/>
+    <col min="3" max="3" width="20.9666666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.6833333333333" customWidth="1"/>
+    <col min="10" max="10" width="13.225" customWidth="1"/>
+    <col min="11" max="11" width="18.6916666666667" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="22.0925925925926" customWidth="1"/>
-    <col min="14" max="14" width="25.5555555555556" customWidth="1"/>
-    <col min="15" max="15" width="16.9444444444444" customWidth="1"/>
-    <col min="16" max="16" width="24.0277777777778" customWidth="1"/>
-    <col min="17" max="17" width="21.3981481481481" customWidth="1"/>
+    <col min="13" max="13" width="22.0916666666667" customWidth="1"/>
+    <col min="14" max="14" width="25.5583333333333" customWidth="1"/>
+    <col min="15" max="15" width="16.9416666666667" customWidth="1"/>
+    <col min="16" max="16" width="24.025" customWidth="1"/>
+    <col min="17" max="17" width="21.4" customWidth="1"/>
     <col min="19" max="19" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -5136,52 +5171,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="I1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="K1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="N1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="O1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>22</v>
@@ -5189,55 +5224,55 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="R2" s="6"/>
       <c r="T2" s="8" t="s">
@@ -5246,22 +5281,22 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:20">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -5270,27 +5305,27 @@
         <v>30</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:20">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -5299,27 +5334,27 @@
         <v>2</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:20">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -5331,22 +5366,22 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -5357,22 +5392,22 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -5399,7 +5434,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="8.91666666666667" customWidth="1"/>
@@ -5411,30 +5446,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C2" s="4">
         <v>100</v>
@@ -5454,47 +5489,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RefData/Excels/kidgame_game_data_config.xlsx
+++ b/Assets/RefData/Excels/kidgame_game_data_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="905" activeTab="2"/>
+    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="905"/>
   </bookViews>
   <sheets>
     <sheet name="TrapDataList" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="263">
   <si>
     <t>id</t>
   </si>
@@ -218,7 +218,7 @@
     <t>向着车头的方向前进，撞到敌人之后会使其跌倒并扣除x点精神值，撞到墙了陷阱也会停下，同时发出较大的声音</t>
   </si>
   <si>
-    <t>TimeDelay;ExternalEvent</t>
+    <t>Immediate;ExternalEvent</t>
   </si>
   <si>
     <t>3.陷阱图标路径一般是GUI/Icon/Trap/xxxx,可以去unity里面一下名字替换xxxx</t>
@@ -502,6 +502,12 @@
     <t>一种粘性的发光小球，
 能够粘在敌人或特定位置上，
 在黑暗环境中发光。</t>
+  </si>
+  <si>
+    <t>telescope</t>
+  </si>
+  <si>
+    <t>用于侦察</t>
   </si>
   <si>
     <t>description</t>
@@ -2049,8 +2055,8 @@
   <sheetPr/>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2250,7 +2256,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>49</v>
@@ -2308,7 +2314,7 @@
         <v>40</v>
       </c>
       <c r="G4" s="15">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>55</v>
@@ -2366,7 +2372,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="15">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>49</v>
@@ -2381,7 +2387,7 @@
         <v>60</v>
       </c>
       <c r="L5" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" s="14">
         <v>1</v>
@@ -4091,33 +4097,33 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -4125,16 +4131,16 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -4142,42 +4148,42 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4481,7 +4487,7 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4596,7 +4602,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -4634,9 +4640,18 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:1">
+    <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
         <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
@@ -4710,90 +4725,90 @@
         <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
         <v>131</v>
-      </c>
-      <c r="C4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4824,10 +4839,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
@@ -4835,72 +4850,72 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1"/>
@@ -4929,13 +4944,13 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
@@ -5017,7 +5032,7 @@
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
         <v>90</v>
@@ -5028,7 +5043,7 @@
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -5039,7 +5054,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
         <v>94</v>
@@ -5050,7 +5065,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -5061,7 +5076,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" t="str">
         <f>MaterialDataList!A13</f>
@@ -5073,7 +5088,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="str">
         <f>MaterialDataList!A14</f>
@@ -5171,52 +5186,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>22</v>
@@ -5224,55 +5239,55 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="R2" s="6"/>
       <c r="T2" s="8" t="s">
@@ -5281,22 +5296,22 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:20">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -5305,27 +5320,27 @@
         <v>30</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:20">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -5334,27 +5349,27 @@
         <v>2</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:20">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -5366,22 +5381,22 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -5392,22 +5407,22 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -5446,30 +5461,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C2" s="4">
         <v>100</v>
@@ -5489,47 +5504,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RefData/Excels/kidgame_game_data_config.xlsx
+++ b/Assets/RefData/Excels/kidgame_game_data_config.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="905"/>
+    <workbookView windowWidth="23040" windowHeight="10500" tabRatio="905" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TrapDataList" sheetId="2" r:id="rId1"/>
     <sheet name="MaterialDataList" sheetId="3" r:id="rId2"/>
     <sheet name="WeaponDataList" sheetId="10" r:id="rId3"/>
     <sheet name="FoodDataList" sheetId="17" r:id="rId4"/>
-    <sheet name="FurnitureDataList" sheetId="5" r:id="rId5"/>
-    <sheet name="RoomDataList" sheetId="6" r:id="rId6"/>
+    <sheet name="FurnitureInfoDataList" sheetId="5" r:id="rId5"/>
+    <sheet name="RoomInfoDataList" sheetId="6" r:id="rId6"/>
     <sheet name="RecipeDataList" sheetId="7" r:id="rId7"/>
     <sheet name="BuffDataList" sheetId="4" r:id="rId8"/>
     <sheet name="EnemyDataList" sheetId="11" r:id="rId9"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="267">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,16 @@
     <t>用于侦察</t>
   </si>
   <si>
-    <t>description</t>
+    <t>furnitureName</t>
+  </si>
+  <si>
+    <t>furnitureDesc</t>
+  </si>
+  <si>
+    <t>materialIdList</t>
+  </si>
+  <si>
+    <t>Tip:</t>
   </si>
   <si>
     <t>F001</t>
@@ -522,7 +531,7 @@
     <t>可作为陷阱装置的载体，或者洗掉衣服上的痕迹</t>
   </si>
   <si>
-    <t>这个表暂时还没搞好，因为要配置占地面积，还没有方法转化</t>
+    <t>1.这里配的所有信息只是为了一个图鉴介绍作用，不会实际用在地图生成，地图生成相关在地图制作时一起在游戏内手动配置</t>
   </si>
   <si>
     <t>F002</t>
@@ -573,7 +582,7 @@
     <t>roomType</t>
   </si>
   <si>
-    <t>materialIdList</t>
+    <t>furnitureIdList</t>
   </si>
   <si>
     <t>#id</t>
@@ -582,10 +591,10 @@
     <t>#房间类型</t>
   </si>
   <si>
+    <t>#包含的家具</t>
+  </si>
+  <si>
     <t>#包含的材料列表(散落的）</t>
-  </si>
-  <si>
-    <t>1.不需要配房间里有的家具，因为地图是地图编辑器做的，家具是自己摆的，不是随机生成的</t>
   </si>
   <si>
     <t>R001</t>
@@ -664,6 +673,9 @@
   </si>
   <si>
     <t>buffName</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
   <si>
     <t>iconPath</t>
@@ -2055,11 +2067,11 @@
   <sheetPr/>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -2070,14 +2082,14 @@
     <col min="12" max="12" width="12.5833333333333" customWidth="1"/>
     <col min="13" max="13" width="29.0833333333333" customWidth="1"/>
     <col min="14" max="14" width="14.1666666666667" customWidth="1"/>
-    <col min="15" max="15" width="25.8833333333333" customWidth="1"/>
-    <col min="16" max="16" width="21.175" customWidth="1"/>
+    <col min="15" max="15" width="25.8796296296296" customWidth="1"/>
+    <col min="16" max="16" width="21.1759259259259" customWidth="1"/>
     <col min="17" max="17" width="18.1666666666667" customWidth="1"/>
-    <col min="18" max="18" width="18.8166666666667" customWidth="1"/>
-    <col min="19" max="19" width="27.2833333333333" customWidth="1"/>
-    <col min="20" max="20" width="20.4083333333333" customWidth="1"/>
-    <col min="21" max="21" width="19.675" customWidth="1"/>
-    <col min="22" max="22" width="20.7833333333333" customWidth="1"/>
+    <col min="18" max="18" width="18.8148148148148" customWidth="1"/>
+    <col min="19" max="19" width="27.287037037037" customWidth="1"/>
+    <col min="20" max="20" width="20.4074074074074" customWidth="1"/>
+    <col min="21" max="21" width="19.6759259259259" customWidth="1"/>
+    <col min="22" max="22" width="20.787037037037" customWidth="1"/>
     <col min="23" max="23" width="14.1666666666667" customWidth="1"/>
     <col min="24" max="24" width="13.8333333333333" style="9" customWidth="1"/>
     <col min="25" max="25" width="103.666666666667" customWidth="1"/>
@@ -2664,7 +2676,7 @@
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" ht="14.4" spans="1:28">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -2694,7 +2706,7 @@
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" ht="14.4" spans="1:28">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -2724,7 +2736,7 @@
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" ht="14.4" spans="1:28">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -2754,7 +2766,7 @@
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" ht="14.4" spans="1:28">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -2784,7 +2796,7 @@
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" ht="14.4" spans="1:28">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2814,7 +2826,7 @@
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" ht="14.4" spans="1:28">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2844,7 +2856,7 @@
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" ht="14.4" spans="1:28">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2874,7 +2886,7 @@
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" ht="14.4" spans="1:28">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -2904,7 +2916,7 @@
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" ht="14.4" spans="1:28">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -2934,7 +2946,7 @@
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" ht="14.4" spans="1:28">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2964,7 +2976,7 @@
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" ht="14.4" spans="1:28">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2994,7 +3006,7 @@
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" ht="14.4" spans="1:28">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -3024,7 +3036,7 @@
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" ht="14.4" spans="1:28">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -3054,7 +3066,7 @@
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" ht="14.4" spans="1:28">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -3084,7 +3096,7 @@
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" ht="14.4" spans="1:28">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -3114,7 +3126,7 @@
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" ht="14.4" spans="1:28">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -3144,7 +3156,7 @@
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" ht="14.4" spans="1:28">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -3174,7 +3186,7 @@
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" ht="14.4" spans="1:28">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -3204,7 +3216,7 @@
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" ht="14.4" spans="1:28">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -3234,7 +3246,7 @@
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" ht="14.4" spans="1:28">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -3264,7 +3276,7 @@
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" ht="14.4" spans="1:28">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -3294,7 +3306,7 @@
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" ht="14.4" spans="1:28">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -3324,7 +3336,7 @@
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" ht="14.4" spans="1:28">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -3354,7 +3366,7 @@
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" ht="14.4" spans="1:28">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -3384,7 +3396,7 @@
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" ht="14.4" spans="1:28">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -3414,7 +3426,7 @@
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" ht="14.4" spans="1:28">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -3444,7 +3456,7 @@
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" ht="14.4" spans="1:28">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -3474,7 +3486,7 @@
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" ht="14.4" spans="1:28">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -3504,7 +3516,7 @@
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" ht="14.4" spans="1:28">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -3534,7 +3546,7 @@
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" ht="14.4" spans="1:28">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -3564,7 +3576,7 @@
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" ht="14.4" spans="1:28">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -3594,7 +3606,7 @@
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" ht="14.4" spans="1:28">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -3624,7 +3636,7 @@
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" ht="14.4" spans="1:28">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -3654,7 +3666,7 @@
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" ht="14.4" spans="1:28">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -3684,7 +3696,7 @@
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" ht="14.4" spans="1:28">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -3714,7 +3726,7 @@
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" ht="14.4" spans="1:28">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -3744,7 +3756,7 @@
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" ht="14.4" spans="1:28">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -3774,7 +3786,7 @@
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" ht="14.4" spans="1:28">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -3804,7 +3816,7 @@
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" ht="14.4" spans="1:28">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -3834,7 +3846,7 @@
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" ht="14.4" spans="1:28">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -3864,7 +3876,7 @@
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" ht="14.4" spans="1:28">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -3894,7 +3906,7 @@
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" ht="14.4" spans="1:28">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -3924,7 +3936,7 @@
       <c r="AA55" s="20"/>
       <c r="AB55" s="20"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" ht="14.4" spans="1:28">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -3954,7 +3966,7 @@
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" ht="14.4" spans="1:28">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -3984,7 +3996,7 @@
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" ht="14.4" spans="1:28">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -4089,7 +4101,7 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="92.4166666666667" customWidth="1"/>
@@ -4097,33 +4109,33 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -4131,16 +4143,16 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -4148,42 +4160,42 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4201,7 +4213,7 @@
       <selection activeCell="L1" sqref="L1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="37.25" customWidth="1"/>
@@ -4491,7 +4503,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="29.0833333333333" customWidth="1"/>
@@ -4605,7 +4617,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="29.0833333333333" customWidth="1"/>
@@ -4626,7 +4638,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" ht="42" spans="1:4">
+    <row r="2" ht="41.4" spans="1:4">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -4706,109 +4718,116 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="4" max="4" width="29.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:3">
+    <row r="1" ht="13" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
         <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4822,15 +4841,15 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="22.4416666666667" customWidth="1"/>
-    <col min="4" max="4" width="24.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="22.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="46.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -4839,10 +4858,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
@@ -4850,72 +4872,75 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1"/>
@@ -4937,20 +4962,20 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
@@ -5032,7 +5057,7 @@
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
         <v>90</v>
@@ -5043,7 +5068,7 @@
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -5054,7 +5079,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
         <v>94</v>
@@ -5065,7 +5090,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -5076,7 +5101,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B13" t="str">
         <f>MaterialDataList!A13</f>
@@ -5088,7 +5113,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B14" t="str">
         <f>MaterialDataList!A14</f>
@@ -5165,19 +5190,19 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.9666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.6833333333333" customWidth="1"/>
-    <col min="10" max="10" width="13.225" customWidth="1"/>
-    <col min="11" max="11" width="18.6916666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.962962962963" customWidth="1"/>
+    <col min="4" max="4" width="14.6851851851852" customWidth="1"/>
+    <col min="10" max="10" width="13.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="18.6944444444444" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="22.0916666666667" customWidth="1"/>
-    <col min="14" max="14" width="25.5583333333333" customWidth="1"/>
-    <col min="15" max="15" width="16.9416666666667" customWidth="1"/>
-    <col min="16" max="16" width="24.025" customWidth="1"/>
-    <col min="17" max="17" width="21.4" customWidth="1"/>
+    <col min="13" max="13" width="22.0925925925926" customWidth="1"/>
+    <col min="14" max="14" width="25.5555555555556" customWidth="1"/>
+    <col min="15" max="15" width="16.9444444444444" customWidth="1"/>
+    <col min="16" max="16" width="24.0277777777778" customWidth="1"/>
+    <col min="17" max="17" width="21.3981481481481" customWidth="1"/>
     <col min="19" max="19" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -5186,52 +5211,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="J1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="N1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>22</v>
@@ -5239,55 +5264,55 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="R2" s="6"/>
       <c r="T2" s="8" t="s">
@@ -5296,22 +5321,22 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:20">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -5320,27 +5345,27 @@
         <v>30</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:20">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -5349,27 +5374,27 @@
         <v>2</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:20">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -5381,22 +5406,22 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -5407,22 +5432,22 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -5449,7 +5474,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="8.91666666666667" customWidth="1"/>
@@ -5461,30 +5486,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C2" s="4">
         <v>100</v>
@@ -5504,47 +5529,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RefData/Excels/kidgame_game_data_config.xlsx
+++ b/Assets/RefData/Excels/kidgame_game_data_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10500" tabRatio="905" activeTab="5"/>
+    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="905"/>
   </bookViews>
   <sheets>
     <sheet name="TrapDataList" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="269">
   <si>
     <t>id</t>
   </si>
@@ -104,6 +104,9 @@
     <t>deadParticleName</t>
   </si>
   <si>
+    <t>soundRange</t>
+  </si>
+  <si>
     <t>Tips:</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
     <t>#销毁特效名</t>
   </si>
   <si>
+    <t>#陷阱发声范围（float）</t>
+  </si>
+  <si>
     <t>一些说明如下:</t>
   </si>
   <si>
@@ -215,7 +221,7 @@
     <t>电动小车</t>
   </si>
   <si>
-    <t>向着车头的方向前进，撞到敌人之后会使其跌倒并扣除x点精神值，撞到墙了陷阱也会停下，同时发出较大的声音</t>
+    <t>向着车头的方向前进，撞到敌人之后会使其跌倒并扣除x点精神值，撞到墙了陷阱也会停下</t>
   </si>
   <si>
     <t>Immediate;ExternalEvent</t>
@@ -2067,30 +2073,32 @@
   <sheetPr/>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
-    <col min="4" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="12.5833333333333" customWidth="1"/>
+    <col min="3" max="3" width="101.666666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="15.3333333333333" customWidth="1"/>
+    <col min="7" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="19.0833333333333" customWidth="1"/>
     <col min="13" max="13" width="29.0833333333333" customWidth="1"/>
     <col min="14" max="14" width="14.1666666666667" customWidth="1"/>
-    <col min="15" max="15" width="25.8796296296296" customWidth="1"/>
-    <col min="16" max="16" width="21.1759259259259" customWidth="1"/>
+    <col min="15" max="15" width="25.8833333333333" customWidth="1"/>
+    <col min="16" max="16" width="21.175" customWidth="1"/>
     <col min="17" max="17" width="18.1666666666667" customWidth="1"/>
-    <col min="18" max="18" width="18.8148148148148" customWidth="1"/>
-    <col min="19" max="19" width="27.287037037037" customWidth="1"/>
-    <col min="20" max="20" width="20.4074074074074" customWidth="1"/>
-    <col min="21" max="21" width="19.6759259259259" customWidth="1"/>
-    <col min="22" max="22" width="20.787037037037" customWidth="1"/>
-    <col min="23" max="23" width="14.1666666666667" customWidth="1"/>
+    <col min="18" max="18" width="18.8166666666667" customWidth="1"/>
+    <col min="19" max="19" width="27.2833333333333" customWidth="1"/>
+    <col min="20" max="20" width="20.4083333333333" customWidth="1"/>
+    <col min="21" max="21" width="19.675" customWidth="1"/>
+    <col min="22" max="22" width="20.7833333333333" customWidth="1"/>
+    <col min="23" max="23" width="21.9166666666667" customWidth="1"/>
     <col min="24" max="24" width="13.8333333333333" style="9" customWidth="1"/>
     <col min="25" max="25" width="103.666666666667" customWidth="1"/>
     <col min="26" max="26" width="15.6666666666667" customWidth="1"/>
@@ -2165,10 +2173,12 @@
       <c r="V1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="22"/>
+      <c r="W1" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="X1" s="23"/>
       <c r="Y1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z1" s="20"/>
       <c r="AA1" s="20"/>
@@ -2176,75 +2186,77 @@
     </row>
     <row r="2" ht="13" customHeight="1" spans="1:28">
       <c r="A2" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" s="22"/>
+        <v>45</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>46</v>
+      </c>
       <c r="X2" s="23"/>
       <c r="Y2" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
@@ -2252,13 +2264,13 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:28">
       <c r="A3" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14">
@@ -2271,16 +2283,16 @@
         <v>30</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J3" s="14">
         <v>-1</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L3" s="14">
         <v>1</v>
@@ -2299,10 +2311,12 @@
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
       <c r="V3" s="21"/>
-      <c r="W3" s="22"/>
+      <c r="W3" s="22">
+        <v>10</v>
+      </c>
       <c r="X3" s="23"/>
       <c r="Y3" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
@@ -2310,13 +2324,13 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:28">
       <c r="A4" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14">
@@ -2329,16 +2343,16 @@
         <v>40</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J4" s="14">
         <v>-1</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L4" s="14">
         <v>1</v>
@@ -2357,10 +2371,12 @@
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
       <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
+      <c r="W4" s="22">
+        <v>10</v>
+      </c>
       <c r="X4" s="23"/>
       <c r="Y4" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
@@ -2368,13 +2384,13 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:28">
       <c r="A5" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14">
@@ -2387,16 +2403,16 @@
         <v>20</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J5" s="14">
         <v>-1</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L5" s="14">
         <v>1</v>
@@ -2415,10 +2431,12 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="21"/>
-      <c r="W5" s="22"/>
+      <c r="W5" s="22">
+        <v>5</v>
+      </c>
       <c r="X5" s="23"/>
       <c r="Y5" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
@@ -2676,7 +2694,7 @@
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
     </row>
-    <row r="14" ht="14.4" spans="1:28">
+    <row r="14" spans="1:28">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -2706,7 +2724,7 @@
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
     </row>
-    <row r="15" ht="14.4" spans="1:28">
+    <row r="15" spans="1:28">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -2736,7 +2754,7 @@
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
     </row>
-    <row r="16" ht="14.4" spans="1:28">
+    <row r="16" spans="1:28">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -2766,7 +2784,7 @@
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
     </row>
-    <row r="17" ht="14.4" spans="1:28">
+    <row r="17" spans="1:28">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -2796,7 +2814,7 @@
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
     </row>
-    <row r="18" ht="14.4" spans="1:28">
+    <row r="18" spans="1:28">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2826,7 +2844,7 @@
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
     </row>
-    <row r="19" ht="14.4" spans="1:28">
+    <row r="19" spans="1:28">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2856,7 +2874,7 @@
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
     </row>
-    <row r="20" ht="14.4" spans="1:28">
+    <row r="20" spans="1:28">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2886,7 +2904,7 @@
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
     </row>
-    <row r="21" ht="14.4" spans="1:28">
+    <row r="21" spans="1:28">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -2916,7 +2934,7 @@
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
     </row>
-    <row r="22" ht="14.4" spans="1:28">
+    <row r="22" spans="1:28">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -2946,7 +2964,7 @@
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
     </row>
-    <row r="23" ht="14.4" spans="1:28">
+    <row r="23" spans="1:28">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2976,7 +2994,7 @@
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
     </row>
-    <row r="24" ht="14.4" spans="1:28">
+    <row r="24" spans="1:28">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -3006,7 +3024,7 @@
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
     </row>
-    <row r="25" ht="14.4" spans="1:28">
+    <row r="25" spans="1:28">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -3036,7 +3054,7 @@
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
     </row>
-    <row r="26" ht="14.4" spans="1:28">
+    <row r="26" spans="1:28">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -3066,7 +3084,7 @@
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
     </row>
-    <row r="27" ht="14.4" spans="1:28">
+    <row r="27" spans="1:28">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -3096,7 +3114,7 @@
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
     </row>
-    <row r="28" ht="14.4" spans="1:28">
+    <row r="28" spans="1:28">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -3126,7 +3144,7 @@
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
     </row>
-    <row r="29" ht="14.4" spans="1:28">
+    <row r="29" spans="1:28">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -3156,7 +3174,7 @@
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
     </row>
-    <row r="30" ht="14.4" spans="1:28">
+    <row r="30" spans="1:28">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -3186,7 +3204,7 @@
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
     </row>
-    <row r="31" ht="14.4" spans="1:28">
+    <row r="31" spans="1:28">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -3216,7 +3234,7 @@
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
     </row>
-    <row r="32" ht="14.4" spans="1:28">
+    <row r="32" spans="1:28">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -3246,7 +3264,7 @@
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
     </row>
-    <row r="33" ht="14.4" spans="1:28">
+    <row r="33" spans="1:28">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -3276,7 +3294,7 @@
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
     </row>
-    <row r="34" ht="14.4" spans="1:28">
+    <row r="34" spans="1:28">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -3306,7 +3324,7 @@
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
     </row>
-    <row r="35" ht="14.4" spans="1:28">
+    <row r="35" spans="1:28">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -3336,7 +3354,7 @@
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
     </row>
-    <row r="36" ht="14.4" spans="1:28">
+    <row r="36" spans="1:28">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -3366,7 +3384,7 @@
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
     </row>
-    <row r="37" ht="14.4" spans="1:28">
+    <row r="37" spans="1:28">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -3396,7 +3414,7 @@
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
     </row>
-    <row r="38" ht="14.4" spans="1:28">
+    <row r="38" spans="1:28">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -3426,7 +3444,7 @@
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
     </row>
-    <row r="39" ht="14.4" spans="1:28">
+    <row r="39" spans="1:28">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -3456,7 +3474,7 @@
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
     </row>
-    <row r="40" ht="14.4" spans="1:28">
+    <row r="40" spans="1:28">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -3486,7 +3504,7 @@
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
     </row>
-    <row r="41" ht="14.4" spans="1:28">
+    <row r="41" spans="1:28">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -3516,7 +3534,7 @@
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
     </row>
-    <row r="42" ht="14.4" spans="1:28">
+    <row r="42" spans="1:28">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -3546,7 +3564,7 @@
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
     </row>
-    <row r="43" ht="14.4" spans="1:28">
+    <row r="43" spans="1:28">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -3576,7 +3594,7 @@
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
     </row>
-    <row r="44" ht="14.4" spans="1:28">
+    <row r="44" spans="1:28">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -3606,7 +3624,7 @@
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
     </row>
-    <row r="45" ht="14.4" spans="1:28">
+    <row r="45" spans="1:28">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -3636,7 +3654,7 @@
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
     </row>
-    <row r="46" ht="14.4" spans="1:28">
+    <row r="46" spans="1:28">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -3666,7 +3684,7 @@
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
     </row>
-    <row r="47" ht="14.4" spans="1:28">
+    <row r="47" spans="1:28">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -3696,7 +3714,7 @@
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
     </row>
-    <row r="48" ht="14.4" spans="1:28">
+    <row r="48" spans="1:28">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -3726,7 +3744,7 @@
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
     </row>
-    <row r="49" ht="14.4" spans="1:28">
+    <row r="49" spans="1:28">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -3756,7 +3774,7 @@
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
     </row>
-    <row r="50" ht="14.4" spans="1:28">
+    <row r="50" spans="1:28">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -3786,7 +3804,7 @@
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
     </row>
-    <row r="51" ht="14.4" spans="1:28">
+    <row r="51" spans="1:28">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -3816,7 +3834,7 @@
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
     </row>
-    <row r="52" ht="14.4" spans="1:28">
+    <row r="52" spans="1:28">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -3846,7 +3864,7 @@
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
     </row>
-    <row r="53" ht="14.4" spans="1:28">
+    <row r="53" spans="1:28">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -3876,7 +3894,7 @@
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
     </row>
-    <row r="54" ht="14.4" spans="1:28">
+    <row r="54" spans="1:28">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -3906,7 +3924,7 @@
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
     </row>
-    <row r="55" ht="14.4" spans="1:28">
+    <row r="55" spans="1:28">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -3936,7 +3954,7 @@
       <c r="AA55" s="20"/>
       <c r="AB55" s="20"/>
     </row>
-    <row r="56" ht="14.4" spans="1:28">
+    <row r="56" spans="1:28">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -3966,7 +3984,7 @@
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
     </row>
-    <row r="57" ht="14.4" spans="1:28">
+    <row r="57" spans="1:28">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -3996,7 +4014,7 @@
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
     </row>
-    <row r="58" ht="14.4" spans="1:28">
+    <row r="58" spans="1:28">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -4101,7 +4119,7 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="92.4166666666667" customWidth="1"/>
@@ -4109,33 +4127,33 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -4143,16 +4161,16 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -4160,42 +4178,42 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4213,7 +4231,7 @@
       <selection activeCell="L1" sqref="L1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="37.25" customWidth="1"/>
@@ -4228,16 +4246,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -4252,47 +4270,47 @@
         <v>20</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -4302,15 +4320,15 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="L3" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:12">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -4320,15 +4338,15 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="L4" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:12">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4338,15 +4356,15 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="L5" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -4358,10 +4376,10 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -4373,10 +4391,10 @@
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:9">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -4388,10 +4406,10 @@
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:9">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -4403,10 +4421,10 @@
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:9">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -4418,10 +4436,10 @@
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:9">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -4433,10 +4451,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -4448,10 +4466,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -4463,10 +4481,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -4497,48 +4515,53 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="29.0833333333333" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:7">
+    <row r="1" ht="13" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4555,50 +4578,53 @@
       <c r="G2">
         <v>10</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C11" s="10"/>
     </row>
@@ -4617,7 +4643,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="29.0833333333333" customWidth="1"/>
@@ -4626,84 +4652,84 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" ht="41.4" spans="1:4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" ht="42" spans="1:4">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C11" s="10"/>
     </row>
@@ -4722,11 +4748,11 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="37.25" customWidth="1"/>
-    <col min="4" max="4" width="29.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="29.775" customWidth="1"/>
     <col min="6" max="6" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -4735,99 +4761,99 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
         <v>136</v>
-      </c>
-      <c r="C4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4841,15 +4867,15 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="22.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="46.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="22.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="46.4416666666667" customWidth="1"/>
     <col min="5" max="5" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -4858,89 +4884,89 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1"/>
@@ -4962,28 +4988,28 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4991,10 +5017,10 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5002,10 +5028,10 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5013,10 +5039,10 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -5024,10 +5050,10 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -5035,10 +5061,10 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5046,10 +5072,10 @@
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5057,10 +5083,10 @@
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5068,10 +5094,10 @@
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -5079,10 +5105,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5090,10 +5116,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -5101,7 +5127,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B13" t="str">
         <f>MaterialDataList!A13</f>
@@ -5113,7 +5139,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B14" t="str">
         <f>MaterialDataList!A14</f>
@@ -5190,19 +5216,19 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.962962962963" customWidth="1"/>
-    <col min="4" max="4" width="14.6851851851852" customWidth="1"/>
-    <col min="10" max="10" width="13.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="18.6944444444444" customWidth="1"/>
+    <col min="3" max="3" width="20.9666666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.6833333333333" customWidth="1"/>
+    <col min="10" max="10" width="13.225" customWidth="1"/>
+    <col min="11" max="11" width="18.6916666666667" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="22.0925925925926" customWidth="1"/>
-    <col min="14" max="14" width="25.5555555555556" customWidth="1"/>
-    <col min="15" max="15" width="16.9444444444444" customWidth="1"/>
-    <col min="16" max="16" width="24.0277777777778" customWidth="1"/>
-    <col min="17" max="17" width="21.3981481481481" customWidth="1"/>
+    <col min="13" max="13" width="22.0916666666667" customWidth="1"/>
+    <col min="14" max="14" width="25.5583333333333" customWidth="1"/>
+    <col min="15" max="15" width="16.9416666666667" customWidth="1"/>
+    <col min="16" max="16" width="24.025" customWidth="1"/>
+    <col min="17" max="17" width="21.4" customWidth="1"/>
     <col min="19" max="19" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -5211,132 +5237,132 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="R2" s="6"/>
       <c r="T2" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:20">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -5345,27 +5371,27 @@
         <v>30</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:20">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -5374,27 +5400,27 @@
         <v>2</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:20">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -5406,22 +5432,22 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -5432,22 +5458,22 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -5474,7 +5500,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="8.91666666666667" customWidth="1"/>
@@ -5486,30 +5512,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C2" s="4">
         <v>100</v>
@@ -5529,47 +5555,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RefData/Excels/kidgame_game_data_config.xlsx
+++ b/Assets/RefData/Excels/kidgame_game_data_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="905"/>
+    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TrapDataList" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="278">
   <si>
     <t>id</t>
   </si>
@@ -460,6 +460,9 @@
     <t>impactForce</t>
   </si>
   <si>
+    <t>longOrShortPress</t>
+  </si>
+  <si>
     <t>h001</t>
   </si>
   <si>
@@ -469,6 +472,9 @@
     <t>h002</t>
   </si>
   <si>
+    <t>Telescope</t>
+  </si>
+  <si>
     <t>h003</t>
   </si>
   <si>
@@ -491,6 +497,27 @@
   </si>
   <si>
     <t>h010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 消耗品 0 | 手持品 1 </t>
+  </si>
+  <si>
+    <t>#使用距离</t>
+  </si>
+  <si>
+    <t>#近战 0 | 远程 1</t>
+  </si>
+  <si>
+    <t>#伤害</t>
+  </si>
+  <si>
+    <t>#冲击力</t>
+  </si>
+  <si>
+    <t>#声音大小</t>
+  </si>
+  <si>
+    <t>/#使用方式是长按0|短按1</t>
   </si>
   <si>
     <t>itemId</t>
@@ -2073,7 +2100,7 @@
   <sheetPr/>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -4127,33 +4154,33 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -4161,16 +4188,16 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -4178,42 +4205,42 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4515,22 +4542,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="29.0833333333333" customWidth="1"/>
+    <col min="1" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="26.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="16.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="16.8333333333333" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:8">
+    <row r="1" ht="13" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4555,13 +4585,16 @@
       <c r="H1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4581,52 +4614,84 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:1">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:9">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4652,84 +4717,84 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:4">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C11" s="10"/>
     </row>
@@ -4761,99 +4826,99 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4884,13 +4949,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
@@ -4898,75 +4963,75 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1"/>
@@ -4995,13 +5060,13 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
@@ -5083,7 +5148,7 @@
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
         <v>92</v>
@@ -5094,7 +5159,7 @@
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -5105,7 +5170,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
         <v>96</v>
@@ -5116,7 +5181,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -5127,7 +5192,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B13" t="str">
         <f>MaterialDataList!A13</f>
@@ -5139,7 +5204,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B14" t="str">
         <f>MaterialDataList!A14</f>
@@ -5237,52 +5302,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="H1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="K1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="L1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="M1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="N1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="O1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="P1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Q1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>23</v>
@@ -5290,55 +5355,55 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R2" s="6"/>
       <c r="T2" s="8" t="s">
@@ -5347,22 +5412,22 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:20">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -5371,27 +5436,27 @@
         <v>30</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:20">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -5400,27 +5465,27 @@
         <v>2</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:20">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -5432,22 +5497,22 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -5458,22 +5523,22 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -5512,30 +5577,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C2" s="4">
         <v>100</v>
@@ -5555,47 +5620,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RefData/Excels/kidgame_game_data_config.xlsx
+++ b/Assets/RefData/Excels/kidgame_game_data_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="905" activeTab="2"/>
+    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TrapDataList" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="281">
   <si>
     <t>id</t>
   </si>
@@ -110,16 +110,16 @@
     <t>Tips:</t>
   </si>
   <si>
-    <t>#陷阱</t>
-  </si>
-  <si>
-    <t>#陷阱名</t>
-  </si>
-  <si>
-    <t>#陷阱描述</t>
-  </si>
-  <si>
-    <t>#陷阱图标路径</t>
+    <t>#陷阱(string)</t>
+  </si>
+  <si>
+    <t>#陷阱名(string)</t>
+  </si>
+  <si>
+    <t>#陷阱描述(string)</t>
+  </si>
+  <si>
+    <t>#陷阱图标路径(string)</t>
   </si>
   <si>
     <t>#陷阱评级(int)</t>
@@ -131,16 +131,16 @@
     <t>#陷阱分数(int)</t>
   </si>
   <si>
-    <t>#触发类型</t>
-  </si>
-  <si>
-    <t>#生效方式</t>
+    <t>#触发类型(enum)</t>
+  </si>
+  <si>
+    <t>#生效方式(enum)</t>
   </si>
   <si>
     <t>#生效时间(float)</t>
   </si>
   <si>
-    <t>#销毁类型</t>
+    <t>#销毁类型(enum array)</t>
   </si>
   <si>
     <t>#死亡延迟时间(float)</t>
@@ -152,19 +152,19 @@
     <t>#是否有碰撞体(bool)</t>
   </si>
   <si>
-    <t>#交互音效名</t>
-  </si>
-  <si>
-    <t>#回收音效名</t>
-  </si>
-  <si>
-    <t>#触发音效名</t>
-  </si>
-  <si>
-    <t>#销毁音效名</t>
-  </si>
-  <si>
-    <t>#交互特效名</t>
+    <t>#交互音效名(string)</t>
+  </si>
+  <si>
+    <t>#回收音效名(string)</t>
+  </si>
+  <si>
+    <t>#触发音效名(string)</t>
+  </si>
+  <si>
+    <t>#销毁音效名(string)</t>
+  </si>
+  <si>
+    <t>#交互特效名(string)</t>
   </si>
   <si>
     <t>#回收特效名</t>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>Immediate</t>
+  </si>
+  <si>
+    <t>CommonInteract</t>
+  </si>
+  <si>
+    <t>CommonPickUp</t>
+  </si>
+  <si>
+    <t>CommonDead</t>
   </si>
   <si>
     <t>1.音效配置so在Resources下的AudioDataList，这里的填写名只需要填里面单个配置的AudioName，不是路径</t>
@@ -256,7 +265,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>材料id</t>
+      <t>材料id(string)</t>
     </r>
   </si>
   <si>
@@ -276,6 +285,14 @@
       </rPr>
       <t>材料名</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(string)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -294,6 +311,14 @@
       </rPr>
       <t>材料描述</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(string)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -311,6 +336,14 @@
         <charset val="134"/>
       </rPr>
       <t>材料图标路径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(string)</t>
     </r>
   </si>
   <si>
@@ -356,15 +389,23 @@
       </rPr>
       <t>拾取材料声音</t>
     </r>
-  </si>
-  <si>
-    <t>#拾取材料粒子特效</t>
-  </si>
-  <si>
-    <t>#使用材料声音</t>
-  </si>
-  <si>
-    <t>#使用材料粒子特效</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(string)</t>
+    </r>
+  </si>
+  <si>
+    <t>#拾取材料粒子特效(string)</t>
+  </si>
+  <si>
+    <t>#使用材料声音(string)</t>
+  </si>
+  <si>
+    <t>#使用材料粒子特效(string)</t>
   </si>
   <si>
     <t>M001</t>
@@ -1727,6 +1768,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1735,9 +1779,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2100,8 +2141,8 @@
   <sheetPr/>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2134,67 +2175,67 @@
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:28">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="21" t="s">
@@ -2212,67 +2253,67 @@
       <c r="AB1" s="20"/>
     </row>
     <row r="2" ht="13" customHeight="1" spans="1:28">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="11" t="s">
         <v>44</v>
       </c>
       <c r="V2" s="21" t="s">
@@ -2290,17 +2331,17 @@
       <c r="AB2" s="20"/>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14">
+      <c r="D3" s="14"/>
+      <c r="E3" s="11">
         <v>1</v>
       </c>
       <c r="F3" s="15">
@@ -2312,55 +2353,65 @@
       <c r="H3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="11">
         <v>-1</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="11">
         <v>1</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="11">
         <v>3</v>
       </c>
-      <c r="N3" s="14" t="b">
+      <c r="N3" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="21"/>
+      <c r="O3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="11"/>
+      <c r="V3" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="W3" s="22">
         <v>10</v>
       </c>
       <c r="X3" s="23"/>
       <c r="Y3" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
       <c r="AB3" s="20"/>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14">
+      <c r="A4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="15">
@@ -2370,57 +2421,67 @@
         <v>40</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="11">
         <v>-1</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="11">
         <v>1</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="11">
         <v>4</v>
       </c>
-      <c r="N4" s="14" t="b">
+      <c r="N4" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="21"/>
+      <c r="O4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="11"/>
+      <c r="V4" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="W4" s="22">
         <v>10</v>
       </c>
       <c r="X4" s="23"/>
       <c r="Y4" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
       <c r="AB4" s="20"/>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14">
+      <c r="A5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="11">
         <v>1</v>
       </c>
       <c r="F5" s="15">
@@ -2432,65 +2493,75 @@
       <c r="H5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="11">
         <v>-1</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="14">
+      <c r="K5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="11">
         <v>1</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="11">
         <v>1</v>
       </c>
-      <c r="N5" s="14" t="b">
+      <c r="N5" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="21"/>
+      <c r="O5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="11"/>
+      <c r="V5" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="W5" s="22">
         <v>5</v>
       </c>
       <c r="X5" s="23"/>
       <c r="Y5" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
       <c r="AB5" s="20"/>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
       <c r="X6" s="24"/>
@@ -2500,27 +2571,27 @@
       <c r="AB6" s="20"/>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:32">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
       <c r="X7" s="23"/>
@@ -2534,27 +2605,27 @@
       <c r="AF7" s="28"/>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:32">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
       <c r="X8" s="23"/>
@@ -2568,27 +2639,27 @@
       <c r="AF8" s="28"/>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:32">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
       <c r="X9" s="23"/>
@@ -4154,33 +4225,33 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -4188,16 +4259,16 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -4205,42 +4276,42 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4254,8 +4325,8 @@
   <sheetPr/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:V5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4264,7 +4335,7 @@
     <col min="4" max="4" width="37.25" customWidth="1"/>
     <col min="5" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="14.4166666666667" customWidth="1"/>
-    <col min="9" max="9" width="18.0833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.0833333333333" customWidth="1"/>
     <col min="11" max="11" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -4273,16 +4344,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -4302,31 +4373,31 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>47</v>
@@ -4334,190 +4405,238 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="L3" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:12">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="L4" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:12">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="L5" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:9">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:9">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:9">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:9">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
@@ -4544,7 +4663,7 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -4565,36 +4684,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
         <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4620,10 +4739,10 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:9">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4631,66 +4750,66 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="3:9">
       <c r="C12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4717,84 +4836,84 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:4">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C11" s="10"/>
     </row>
@@ -4826,99 +4945,99 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
         <v>148</v>
-      </c>
-      <c r="B5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4949,13 +5068,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
@@ -4963,75 +5082,75 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1"/>
@@ -5060,13 +5179,13 @@
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:3">
@@ -5074,7 +5193,7 @@
         <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5085,7 +5204,7 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5093,10 +5212,10 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5104,10 +5223,10 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -5115,10 +5234,10 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -5126,10 +5245,10 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5137,10 +5256,10 @@
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5148,10 +5267,10 @@
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5159,10 +5278,10 @@
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -5170,10 +5289,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5181,10 +5300,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -5192,7 +5311,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B13" t="str">
         <f>MaterialDataList!A13</f>
@@ -5204,7 +5323,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B14" t="str">
         <f>MaterialDataList!A14</f>
@@ -5302,52 +5421,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>23</v>
@@ -5355,55 +5474,55 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="R2" s="6"/>
       <c r="T2" s="8" t="s">
@@ -5412,22 +5531,22 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:20">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -5436,27 +5555,27 @@
         <v>30</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:20">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -5465,27 +5584,27 @@
         <v>2</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:20">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -5497,22 +5616,22 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -5523,22 +5642,22 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -5577,30 +5696,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C2" s="4">
         <v>100</v>
@@ -5620,47 +5739,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RefData/Excels/kidgame_game_data_config.xlsx
+++ b/Assets/RefData/Excels/kidgame_game_data_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="905" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="10500" tabRatio="905" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TrapDataList" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="279">
   <si>
     <t>id</t>
   </si>
@@ -504,6 +504,33 @@
     <t>longOrShortPress</t>
   </si>
   <si>
+    <t>#武器id</t>
+  </si>
+  <si>
+    <t>#武器名字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#消耗品 0 | 手持品 1 </t>
+  </si>
+  <si>
+    <t>#使用距离</t>
+  </si>
+  <si>
+    <t>#近战 0 | 远程 1</t>
+  </si>
+  <si>
+    <t>#伤害</t>
+  </si>
+  <si>
+    <t>#冲击力</t>
+  </si>
+  <si>
+    <t>#声音大小</t>
+  </si>
+  <si>
+    <t>#使用方式是长按0|短按1</t>
+  </si>
+  <si>
     <t>h001</t>
   </si>
   <si>
@@ -519,58 +546,19 @@
     <t>h003</t>
   </si>
   <si>
-    <t>h004</t>
-  </si>
-  <si>
-    <t>h005</t>
-  </si>
-  <si>
-    <t>h006</t>
-  </si>
-  <si>
-    <t>h007</t>
-  </si>
-  <si>
-    <t>h008</t>
-  </si>
-  <si>
-    <t>h009</t>
-  </si>
-  <si>
-    <t>h010</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># 消耗品 0 | 手持品 1 </t>
-  </si>
-  <si>
-    <t>#使用距离</t>
-  </si>
-  <si>
-    <t>#近战 0 | 远程 1</t>
-  </si>
-  <si>
-    <t>#伤害</t>
-  </si>
-  <si>
-    <t>#冲击力</t>
-  </si>
-  <si>
-    <t>#声音大小</t>
-  </si>
-  <si>
-    <t>/#使用方式是长按0|短按1</t>
-  </si>
-  <si>
-    <t>itemId</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>describition</t>
-  </si>
-  <si>
-    <t>sticky_light_ball</t>
+    <t>WaterGun</t>
+  </si>
+  <si>
+    <t>foodName</t>
+  </si>
+  <si>
+    <t>foodDesc</t>
+  </si>
+  <si>
+    <t>F001</t>
+  </si>
+  <si>
+    <t>汉堡</t>
   </si>
   <si>
     <t>一种粘性的发光小球，
@@ -578,7 +566,10 @@
 在黑暗环境中发光。</t>
   </si>
   <si>
-    <t>telescope</t>
+    <t>F002</t>
+  </si>
+  <si>
+    <t>鸡肉卷</t>
   </si>
   <si>
     <t>用于侦察</t>
@@ -596,9 +587,6 @@
     <t>Tip:</t>
   </si>
   <si>
-    <t>F001</t>
-  </si>
-  <si>
     <t>洗衣机</t>
   </si>
   <si>
@@ -608,9 +596,6 @@
     <t>1.这里配的所有信息只是为了一个图鉴介绍作用，不会实际用在地图生成，地图生成相关在地图制作时一起在游戏内手动配置</t>
   </si>
   <si>
-    <t>F002</t>
-  </si>
-  <si>
     <t>摇摇木马</t>
   </si>
   <si>
@@ -713,37 +698,31 @@
     <t>BathRoom</t>
   </si>
   <si>
-    <t>合成目标id</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>材料</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id</t>
-    </r>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>T004</t>
-  </si>
-  <si>
-    <t>T005</t>
-  </si>
-  <si>
-    <t>T006</t>
+    <t>targetId</t>
+  </si>
+  <si>
+    <t>recipeType</t>
+  </si>
+  <si>
+    <t>materialList</t>
+  </si>
+  <si>
+    <t>#配方id</t>
+  </si>
+  <si>
+    <t>#合成物品id</t>
+  </si>
+  <si>
+    <t>#合成物品类型</t>
+  </si>
+  <si>
+    <t>#合成材料列表 M001:2表示两个M001</t>
+  </si>
+  <si>
+    <t>Trap</t>
+  </si>
+  <si>
+    <t>M001:2;M002:1</t>
   </si>
   <si>
     <t>buffName</t>
@@ -1290,12 +1269,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1620,7 +1605,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1644,16 +1629,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1662,115 +1647,126 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1798,17 +1794,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2141,11 +2152,11 @@
   <sheetPr/>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -2158,2049 +2169,2049 @@
     <col min="12" max="12" width="19.0833333333333" customWidth="1"/>
     <col min="13" max="13" width="29.0833333333333" customWidth="1"/>
     <col min="14" max="14" width="14.1666666666667" customWidth="1"/>
-    <col min="15" max="15" width="25.8833333333333" customWidth="1"/>
-    <col min="16" max="16" width="21.175" customWidth="1"/>
+    <col min="15" max="15" width="25.8796296296296" customWidth="1"/>
+    <col min="16" max="16" width="21.1759259259259" customWidth="1"/>
     <col min="17" max="17" width="18.1666666666667" customWidth="1"/>
-    <col min="18" max="18" width="18.8166666666667" customWidth="1"/>
-    <col min="19" max="19" width="27.2833333333333" customWidth="1"/>
-    <col min="20" max="20" width="20.4083333333333" customWidth="1"/>
-    <col min="21" max="21" width="19.675" customWidth="1"/>
-    <col min="22" max="22" width="20.7833333333333" customWidth="1"/>
+    <col min="18" max="18" width="18.8148148148148" customWidth="1"/>
+    <col min="19" max="19" width="27.287037037037" customWidth="1"/>
+    <col min="20" max="20" width="20.4074074074074" customWidth="1"/>
+    <col min="21" max="21" width="19.6759259259259" customWidth="1"/>
+    <col min="22" max="22" width="20.787037037037" customWidth="1"/>
     <col min="23" max="23" width="21.9166666666667" customWidth="1"/>
-    <col min="24" max="24" width="13.8333333333333" style="9" customWidth="1"/>
+    <col min="24" max="24" width="13.8333333333333" style="12" customWidth="1"/>
     <col min="25" max="25" width="103.666666666667" customWidth="1"/>
     <col min="26" max="26" width="15.6666666666667" customWidth="1"/>
     <col min="27" max="27" width="16.25" customWidth="1"/>
     <col min="28" max="28" width="16.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:28">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="1" customFormat="1" ht="13" customHeight="1" spans="1:28">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="7" t="s">
+      <c r="X1" s="29"/>
+      <c r="Y1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
     </row>
     <row r="2" ht="13" customHeight="1" spans="1:28">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="8" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="11">
+      <c r="D3" s="19"/>
+      <c r="E3" s="14">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="20">
         <v>30</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="20">
         <v>30</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <v>-1</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="14">
         <v>1</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="14">
         <v>3</v>
       </c>
-      <c r="N3" s="11" t="b">
+      <c r="N3" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="21" t="s">
+      <c r="U3" s="14"/>
+      <c r="V3" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="22">
+      <c r="W3" s="31">
         <v>10</v>
       </c>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="8" t="s">
+      <c r="X3" s="32"/>
+      <c r="Y3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="11">
+      <c r="D4" s="19"/>
+      <c r="E4" s="14">
         <v>1</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="20">
         <v>40</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="20">
         <v>40</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="14">
         <v>-1</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="14">
         <v>1</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="14">
         <v>4</v>
       </c>
-      <c r="N4" s="11" t="b">
+      <c r="N4" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11" t="s">
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="21" t="s">
+      <c r="U4" s="14"/>
+      <c r="V4" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="22">
+      <c r="W4" s="31">
         <v>10</v>
       </c>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="8" t="s">
+      <c r="X4" s="32"/>
+      <c r="Y4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="11">
+      <c r="D5" s="19"/>
+      <c r="E5" s="14">
         <v>1</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="20">
         <v>20</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="20">
         <v>20</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="14">
         <v>-1</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="14">
         <v>1</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="14">
         <v>1</v>
       </c>
-      <c r="N5" s="11" t="b">
+      <c r="N5" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11" t="s">
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="21" t="s">
+      <c r="U5" s="14"/>
+      <c r="V5" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="22">
+      <c r="W5" s="31">
         <v>5</v>
       </c>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="8" t="s">
+      <c r="X5" s="32"/>
+      <c r="Y5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:32">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="28"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="38"/>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:32">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="28"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="38"/>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:32">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="28"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="38"/>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
     </row>
     <row r="13" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-    </row>
-    <row r="20" spans="1:28">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-    </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-    </row>
-    <row r="23" spans="1:28">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-    </row>
-    <row r="24" spans="1:28">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-    </row>
-    <row r="26" spans="1:28">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-    </row>
-    <row r="27" spans="1:28">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-    </row>
-    <row r="28" spans="1:28">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-    </row>
-    <row r="29" spans="1:28">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-    </row>
-    <row r="30" spans="1:28">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-    </row>
-    <row r="31" spans="1:28">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-    </row>
-    <row r="32" spans="1:28">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-    </row>
-    <row r="33" spans="1:28">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-    </row>
-    <row r="34" spans="1:28">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-    </row>
-    <row r="35" spans="1:28">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="20"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-    </row>
-    <row r="36" spans="1:28">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-    </row>
-    <row r="37" spans="1:28">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-    </row>
-    <row r="38" spans="1:28">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-    </row>
-    <row r="39" spans="1:28">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-    </row>
-    <row r="40" spans="1:28">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="20"/>
-    </row>
-    <row r="41" spans="1:28">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-    </row>
-    <row r="42" spans="1:28">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-    </row>
-    <row r="43" spans="1:28">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-    </row>
-    <row r="44" spans="1:28">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="20"/>
-      <c r="Z44" s="20"/>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="20"/>
-    </row>
-    <row r="45" spans="1:28">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-    </row>
-    <row r="46" spans="1:28">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="20"/>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="20"/>
-      <c r="AB46" s="20"/>
-    </row>
-    <row r="47" spans="1:28">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="20"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="20"/>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="20"/>
-    </row>
-    <row r="48" spans="1:28">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20"/>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="20"/>
-    </row>
-    <row r="49" spans="1:28">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20"/>
-      <c r="AA49" s="20"/>
-      <c r="AB49" s="20"/>
-    </row>
-    <row r="50" spans="1:28">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="20"/>
-      <c r="Z50" s="20"/>
-      <c r="AA50" s="20"/>
-      <c r="AB50" s="20"/>
-    </row>
-    <row r="51" spans="1:28">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="20"/>
-      <c r="AA51" s="20"/>
-      <c r="AB51" s="20"/>
-    </row>
-    <row r="52" spans="1:28">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="25"/>
-      <c r="Y52" s="20"/>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="20"/>
-      <c r="AB52" s="20"/>
-    </row>
-    <row r="53" spans="1:28">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="25"/>
-      <c r="Y53" s="20"/>
-      <c r="Z53" s="20"/>
-      <c r="AA53" s="20"/>
-      <c r="AB53" s="20"/>
-    </row>
-    <row r="54" spans="1:28">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="25"/>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="20"/>
-      <c r="AB54" s="20"/>
-    </row>
-    <row r="55" spans="1:28">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="20"/>
-      <c r="X55" s="25"/>
-      <c r="Y55" s="20"/>
-      <c r="Z55" s="20"/>
-      <c r="AA55" s="20"/>
-      <c r="AB55" s="20"/>
-    </row>
-    <row r="56" spans="1:28">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="20"/>
-      <c r="X56" s="25"/>
-      <c r="Y56" s="20"/>
-      <c r="Z56" s="20"/>
-      <c r="AA56" s="20"/>
-      <c r="AB56" s="20"/>
-    </row>
-    <row r="57" spans="1:28">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="20"/>
-      <c r="X57" s="25"/>
-      <c r="Y57" s="20"/>
-      <c r="Z57" s="20"/>
-      <c r="AA57" s="20"/>
-      <c r="AB57" s="20"/>
-    </row>
-    <row r="58" spans="1:28">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="20"/>
-      <c r="W58" s="20"/>
-      <c r="X58" s="25"/>
-      <c r="Y58" s="20"/>
-      <c r="Z58" s="20"/>
-      <c r="AA58" s="20"/>
-      <c r="AB58" s="20"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+    </row>
+    <row r="14" ht="14.4" spans="1:28">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+    </row>
+    <row r="15" ht="14.4" spans="1:28">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+    </row>
+    <row r="16" ht="14.4" spans="1:28">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+    </row>
+    <row r="17" ht="14.4" spans="1:28">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+    </row>
+    <row r="18" ht="14.4" spans="1:28">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+    </row>
+    <row r="19" ht="14.4" spans="1:28">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+    </row>
+    <row r="20" ht="14.4" spans="1:28">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+    </row>
+    <row r="21" ht="14.4" spans="1:28">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+    </row>
+    <row r="22" ht="14.4" spans="1:28">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+    </row>
+    <row r="23" ht="14.4" spans="1:28">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+    </row>
+    <row r="24" ht="14.4" spans="1:28">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+    </row>
+    <row r="25" ht="14.4" spans="1:28">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+    </row>
+    <row r="26" ht="14.4" spans="1:28">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+    </row>
+    <row r="27" ht="14.4" spans="1:28">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+    </row>
+    <row r="28" ht="14.4" spans="1:28">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+    </row>
+    <row r="29" ht="14.4" spans="1:28">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+    </row>
+    <row r="30" ht="14.4" spans="1:28">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+    </row>
+    <row r="31" ht="14.4" spans="1:28">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+    </row>
+    <row r="32" ht="14.4" spans="1:28">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+    </row>
+    <row r="33" ht="14.4" spans="1:28">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+    </row>
+    <row r="34" ht="14.4" spans="1:28">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+    </row>
+    <row r="35" ht="14.4" spans="1:28">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+    </row>
+    <row r="36" ht="14.4" spans="1:28">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+    </row>
+    <row r="37" ht="14.4" spans="1:28">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+    </row>
+    <row r="38" ht="14.4" spans="1:28">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+    </row>
+    <row r="39" ht="14.4" spans="1:28">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+    </row>
+    <row r="40" ht="14.4" spans="1:28">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+    </row>
+    <row r="41" ht="14.4" spans="1:28">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+    </row>
+    <row r="42" ht="14.4" spans="1:28">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
+    </row>
+    <row r="43" ht="14.4" spans="1:28">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+    </row>
+    <row r="44" ht="14.4" spans="1:28">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
+    </row>
+    <row r="45" ht="14.4" spans="1:28">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+    </row>
+    <row r="46" ht="14.4" spans="1:28">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+    </row>
+    <row r="47" ht="14.4" spans="1:28">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+    </row>
+    <row r="48" ht="14.4" spans="1:28">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
+    </row>
+    <row r="49" ht="14.4" spans="1:28">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="25"/>
+    </row>
+    <row r="50" ht="14.4" spans="1:28">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="25"/>
+      <c r="AA50" s="25"/>
+      <c r="AB50" s="25"/>
+    </row>
+    <row r="51" ht="14.4" spans="1:28">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="25"/>
+    </row>
+    <row r="52" ht="14.4" spans="1:28">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="25"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="25"/>
+      <c r="AA52" s="25"/>
+      <c r="AB52" s="25"/>
+    </row>
+    <row r="53" ht="14.4" spans="1:28">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
+      <c r="AA53" s="25"/>
+      <c r="AB53" s="25"/>
+    </row>
+    <row r="54" ht="14.4" spans="1:28">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="25"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="25"/>
+      <c r="AA54" s="25"/>
+      <c r="AB54" s="25"/>
+    </row>
+    <row r="55" ht="14.4" spans="1:28">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="25"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="25"/>
+      <c r="AA55" s="25"/>
+      <c r="AB55" s="25"/>
+    </row>
+    <row r="56" ht="14.4" spans="1:28">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="25"/>
+      <c r="AA56" s="25"/>
+      <c r="AB56" s="25"/>
+    </row>
+    <row r="57" ht="14.4" spans="1:28">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="25"/>
+      <c r="Z57" s="25"/>
+      <c r="AA57" s="25"/>
+      <c r="AB57" s="25"/>
+    </row>
+    <row r="58" ht="14.4" spans="1:28">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="25"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="25"/>
+      <c r="Z58" s="25"/>
+      <c r="AA58" s="25"/>
+      <c r="AB58" s="25"/>
     </row>
     <row r="59" spans="1:28">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="20"/>
-      <c r="X59" s="25"/>
-      <c r="Y59" s="20"/>
-      <c r="Z59" s="20"/>
-      <c r="AA59" s="20"/>
-      <c r="AB59" s="20"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="25"/>
+      <c r="W59" s="25"/>
+      <c r="X59" s="34"/>
+      <c r="Y59" s="25"/>
+      <c r="Z59" s="25"/>
+      <c r="AA59" s="25"/>
+      <c r="AB59" s="25"/>
     </row>
     <row r="60" spans="1:28">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20"/>
-      <c r="X60" s="25"/>
-      <c r="Y60" s="20"/>
-      <c r="Z60" s="20"/>
-      <c r="AA60" s="20"/>
-      <c r="AB60" s="20"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="25"/>
+      <c r="W60" s="25"/>
+      <c r="X60" s="34"/>
+      <c r="Y60" s="25"/>
+      <c r="Z60" s="25"/>
+      <c r="AA60" s="25"/>
+      <c r="AB60" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4214,44 +4225,44 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="92.4166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="13" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" t="s">
         <v>265</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="C2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -4259,16 +4270,16 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:5">
       <c r="A3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" t="s">
         <v>269</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>270</v>
-      </c>
-      <c r="C3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" t="s">
-        <v>272</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -4276,42 +4287,42 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4325,69 +4336,70 @@
   <sheetPr/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="37.25" customWidth="1"/>
     <col min="5" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="14.4166666666667" customWidth="1"/>
     <col min="9" max="9" width="24.0833333333333" customWidth="1"/>
-    <col min="11" max="11" width="9" style="5"/>
+    <col min="11" max="11" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="13" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>76</v>
       </c>
       <c r="G2" t="s">
@@ -4399,7 +4411,7 @@
       <c r="I2" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4410,18 +4422,18 @@
       <c r="B3" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="L3" s="8" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="L3" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4432,18 +4444,18 @@
       <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="L4" s="8" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="L4" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4454,18 +4466,18 @@
       <c r="B5" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="L5" s="8" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="L5" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4476,17 +4488,17 @@
       <c r="B6" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
@@ -4495,17 +4507,17 @@
       <c r="B7" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:9">
       <c r="A8" t="s">
@@ -4514,17 +4526,17 @@
       <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:9">
       <c r="A9" t="s">
@@ -4533,17 +4545,17 @@
       <c r="B9" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:9">
       <c r="A10" t="s">
@@ -4552,17 +4564,17 @@
       <c r="B10" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:9">
       <c r="A11" t="s">
@@ -4571,86 +4583,86 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" ht="14.4" spans="1:9">
       <c r="A12" t="s">
         <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" ht="14.4" spans="1:9">
       <c r="A13" t="s">
         <v>101</v>
       </c>
       <c r="B13" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" ht="14.4" spans="1:9">
       <c r="A14" t="s">
         <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4664,10 +4676,10 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="26.6666666666667" customWidth="1"/>
@@ -4679,138 +4691,120 @@
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="13" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" customFormat="1" spans="1:9">
       <c r="A2" t="s">
         <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>113</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D3" s="4">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3">
+    <row r="4" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" ht="25.5" customHeight="1" spans="1:1">
+    <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1" spans="1:3">
-      <c r="A11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="3:9">
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" t="s">
         <v>125</v>
       </c>
-      <c r="E12" t="s">
+      <c r="B5" t="s">
         <v>126</v>
       </c>
-      <c r="F12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" t="s">
-        <v>130</v>
-      </c>
+    </row>
+    <row r="6" ht="25.5" customHeight="1"/>
+    <row r="7" ht="25.5" customHeight="1"/>
+    <row r="8" ht="25.5" customHeight="1"/>
+    <row r="9" ht="25.5" customHeight="1"/>
+    <row r="10" ht="25.5" customHeight="1"/>
+    <row r="11" ht="25.5" customHeight="1"/>
+    <row r="12" ht="25.5" customHeight="1" spans="3:3">
+      <c r="C12" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4824,99 +4818,58 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="29.0833333333333" customWidth="1"/>
+    <col min="1" max="2" width="19" customWidth="1"/>
+    <col min="3" max="4" width="29.0833333333333" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="13" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" ht="41.4" spans="1:4">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:3">
+      <c r="A3" t="s">
         <v>132</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" ht="42" spans="1:4">
-      <c r="A2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>134</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1" spans="1:3">
-      <c r="A11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="10"/>
-    </row>
+    </row>
+    <row r="4" ht="25.5" customHeight="1"/>
+    <row r="5" ht="25.5" customHeight="1"/>
+    <row r="6" ht="25.5" customHeight="1"/>
+    <row r="7" ht="25.5" customHeight="1"/>
+    <row r="8" ht="25.5" customHeight="1"/>
+    <row r="9" ht="25.5" customHeight="1"/>
+    <row r="10" ht="25.5" customHeight="1"/>
+    <row r="11" ht="25.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4929,115 +4882,116 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="37.25" customWidth="1"/>
-    <col min="4" max="4" width="29.775" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5"/>
+    <col min="4" max="4" width="29.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="13" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5052,105 +5006,106 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="22.4416666666667" customWidth="1"/>
-    <col min="4" max="4" width="46.4416666666667" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9"/>
+    <col min="3" max="3" width="22.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="46.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="13" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1"/>
@@ -5166,225 +5121,68 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="50.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="25.5" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D2" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:3">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:3">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="25.5" customHeight="1" spans="1:3">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="25.5" customHeight="1" spans="1:3">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" ht="25.5" customHeight="1" spans="1:3">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="25.5" customHeight="1" spans="1:3">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="25.5" customHeight="1" spans="1:3">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1" spans="1:3">
-      <c r="A9" t="s">
+      <c r="D3" t="s">
         <v>184</v>
       </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" customHeight="1" spans="1:3">
-      <c r="A10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" t="str">
-        <f>MaterialDataList!A13</f>
-        <v>M011</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" t="str">
-        <f>MaterialDataList!A14</f>
-        <v>M012</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <f>TrapDataList!A9</f>
-        <v>0</v>
-      </c>
-      <c r="B15" t="str">
-        <f>MaterialDataList!A4</f>
-        <v>M002</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <f>TrapDataList!A9</f>
-        <v>0</v>
-      </c>
-      <c r="B16" t="str">
-        <f>MaterialDataList!A3</f>
-        <v>M001</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <f>TrapDataList!A10</f>
-        <v>0</v>
-      </c>
-      <c r="B17" t="str">
-        <f>MaterialDataList!A4</f>
-        <v>M002</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <f>TrapDataList!A10</f>
-        <v>0</v>
-      </c>
-      <c r="B18" t="str">
-        <f>MaterialDataList!A8</f>
-        <v>M006</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
+    </row>
+    <row r="4" ht="25.5" customHeight="1"/>
+    <row r="5" ht="25.5" customHeight="1"/>
+    <row r="6" ht="25.5" customHeight="1"/>
+    <row r="7" ht="25.5" customHeight="1"/>
+    <row r="8" ht="25.5" customHeight="1"/>
+    <row r="9" ht="25.5" customHeight="1"/>
+    <row r="10" ht="25.5" customHeight="1"/>
+    <row r="11" ht="25.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5397,156 +5195,157 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.9666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.6833333333333" customWidth="1"/>
-    <col min="10" max="10" width="13.225" customWidth="1"/>
-    <col min="11" max="11" width="18.6916666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.962962962963" customWidth="1"/>
+    <col min="4" max="4" width="14.6851851851852" customWidth="1"/>
+    <col min="10" max="10" width="13.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="18.6944444444444" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="22.0916666666667" customWidth="1"/>
-    <col min="14" max="14" width="25.5583333333333" customWidth="1"/>
-    <col min="15" max="15" width="16.9416666666667" customWidth="1"/>
-    <col min="16" max="16" width="24.025" customWidth="1"/>
-    <col min="17" max="17" width="21.4" customWidth="1"/>
-    <col min="19" max="19" width="9" style="5"/>
+    <col min="13" max="13" width="22.0925925925926" customWidth="1"/>
+    <col min="14" max="14" width="25.5555555555556" customWidth="1"/>
+    <col min="15" max="15" width="16.9444444444444" customWidth="1"/>
+    <col min="16" max="16" width="24.0277777777778" customWidth="1"/>
+    <col min="17" max="17" width="21.3981481481481" customWidth="1"/>
+    <col min="19" max="19" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="13" customHeight="1" spans="1:20">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" s="9"/>
+      <c r="T1" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" spans="1:20">
+      <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="B2" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="T1" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:20">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="O2" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Q2" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="R2" s="6"/>
-      <c r="T2" s="8" t="s">
+      <c r="R2" s="8"/>
+      <c r="T2" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:20">
       <c r="A3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" t="s">
         <v>220</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>221</v>
-      </c>
-      <c r="C3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" t="s">
-        <v>223</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -5554,28 +5353,28 @@
       <c r="I3">
         <v>30</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>225</v>
+      <c r="T3" s="11" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:20">
       <c r="A4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>227</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" t="s">
-        <v>229</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -5583,28 +5382,28 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="T4" s="8" t="s">
-        <v>230</v>
+      <c r="T4" s="11" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:20">
       <c r="A5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
         <v>231</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>232</v>
-      </c>
-      <c r="C5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" t="s">
-        <v>234</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -5612,26 +5411,26 @@
       <c r="I5">
         <v>30</v>
       </c>
-      <c r="T5" s="8"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" t="s">
         <v>236</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>237</v>
-      </c>
-      <c r="C6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" t="s">
-        <v>239</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -5642,22 +5441,22 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" t="s">
         <v>240</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>241</v>
-      </c>
-      <c r="C7" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" t="s">
-        <v>243</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -5681,53 +5480,53 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="8.91666666666667" customWidth="1"/>
     <col min="5" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="13" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="4">
+        <v>249</v>
+      </c>
+      <c r="C2" s="5">
         <v>100</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="F2">
@@ -5739,47 +5538,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RefData/Excels/kidgame_game_data_config.xlsx
+++ b/Assets/RefData/Excels/kidgame_game_data_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10500" tabRatio="905" activeTab="6"/>
+    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="905"/>
   </bookViews>
   <sheets>
     <sheet name="TrapDataList" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="283">
   <si>
     <t>id</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>CommonPickUp</t>
+  </si>
+  <si>
+    <t>CommonTrigger</t>
   </si>
   <si>
     <t>CommonDead</t>
@@ -414,6 +417,9 @@
     <t>绳子</t>
   </si>
   <si>
+    <t>CommonUse</t>
+  </si>
+  <si>
     <t>M002</t>
   </si>
   <si>
@@ -707,13 +713,13 @@
     <t>materialList</t>
   </si>
   <si>
-    <t>#配方id</t>
-  </si>
-  <si>
-    <t>#合成物品id</t>
-  </si>
-  <si>
-    <t>#合成物品类型</t>
+    <t>#配方id(String)</t>
+  </si>
+  <si>
+    <t>#合成物品id(String)</t>
+  </si>
+  <si>
+    <t>#合成物品类型(Enum)</t>
   </si>
   <si>
     <t>#合成材料列表 M001:2表示两个M001</t>
@@ -722,7 +728,13 @@
     <t>Trap</t>
   </si>
   <si>
-    <t>M001:2;M002:1</t>
+    <t>M001:1;M003:1</t>
+  </si>
+  <si>
+    <t>M001:3;M003:1</t>
+  </si>
+  <si>
+    <t>M005:1;M010:1</t>
   </si>
   <si>
     <t>buffName</t>
@@ -2152,11 +2164,11 @@
   <sheetPr/>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -2169,14 +2181,14 @@
     <col min="12" max="12" width="19.0833333333333" customWidth="1"/>
     <col min="13" max="13" width="29.0833333333333" customWidth="1"/>
     <col min="14" max="14" width="14.1666666666667" customWidth="1"/>
-    <col min="15" max="15" width="25.8796296296296" customWidth="1"/>
-    <col min="16" max="16" width="21.1759259259259" customWidth="1"/>
+    <col min="15" max="15" width="25.8833333333333" customWidth="1"/>
+    <col min="16" max="16" width="21.175" customWidth="1"/>
     <col min="17" max="17" width="18.1666666666667" customWidth="1"/>
-    <col min="18" max="18" width="18.8148148148148" customWidth="1"/>
-    <col min="19" max="19" width="27.287037037037" customWidth="1"/>
-    <col min="20" max="20" width="20.4074074074074" customWidth="1"/>
-    <col min="21" max="21" width="19.6759259259259" customWidth="1"/>
-    <col min="22" max="22" width="20.787037037037" customWidth="1"/>
+    <col min="18" max="18" width="18.8166666666667" customWidth="1"/>
+    <col min="19" max="19" width="27.2833333333333" customWidth="1"/>
+    <col min="20" max="20" width="20.4083333333333" customWidth="1"/>
+    <col min="21" max="21" width="19.675" customWidth="1"/>
+    <col min="22" max="22" width="20.7833333333333" customWidth="1"/>
     <col min="23" max="23" width="21.9166666666667" customWidth="1"/>
     <col min="24" max="24" width="13.8333333333333" style="12" customWidth="1"/>
     <col min="25" max="25" width="103.666666666667" customWidth="1"/>
@@ -2388,8 +2400,12 @@
       <c r="P3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
+      <c r="Q3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="S3" s="14" t="s">
         <v>53</v>
       </c>
@@ -2398,14 +2414,14 @@
       </c>
       <c r="U3" s="14"/>
       <c r="V3" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W3" s="31">
         <v>10</v>
       </c>
       <c r="X3" s="32"/>
       <c r="Y3" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z3" s="25"/>
       <c r="AA3" s="25"/>
@@ -2413,13 +2429,13 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:28">
       <c r="A4" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="14">
@@ -2432,7 +2448,7 @@
         <v>40</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>52</v>
@@ -2458,8 +2474,12 @@
       <c r="P4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
+      <c r="Q4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="S4" s="14" t="s">
         <v>53</v>
       </c>
@@ -2468,14 +2488,14 @@
       </c>
       <c r="U4" s="14"/>
       <c r="V4" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W4" s="31">
         <v>10</v>
       </c>
       <c r="X4" s="32"/>
       <c r="Y4" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z4" s="25"/>
       <c r="AA4" s="25"/>
@@ -2483,13 +2503,13 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:28">
       <c r="A5" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="14">
@@ -2511,7 +2531,7 @@
         <v>-1</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" s="14">
         <v>1</v>
@@ -2528,8 +2548,12 @@
       <c r="P5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
+      <c r="Q5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="S5" s="14" t="s">
         <v>53</v>
       </c>
@@ -2538,14 +2562,14 @@
       </c>
       <c r="U5" s="14"/>
       <c r="V5" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W5" s="31">
         <v>5</v>
       </c>
       <c r="X5" s="32"/>
       <c r="Y5" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z5" s="25"/>
       <c r="AA5" s="25"/>
@@ -2803,7 +2827,7 @@
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
     </row>
-    <row r="14" ht="14.4" spans="1:28">
+    <row r="14" spans="1:28">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -2833,7 +2857,7 @@
       <c r="AA14" s="25"/>
       <c r="AB14" s="25"/>
     </row>
-    <row r="15" ht="14.4" spans="1:28">
+    <row r="15" spans="1:28">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -2863,7 +2887,7 @@
       <c r="AA15" s="25"/>
       <c r="AB15" s="25"/>
     </row>
-    <row r="16" ht="14.4" spans="1:28">
+    <row r="16" spans="1:28">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -2893,7 +2917,7 @@
       <c r="AA16" s="25"/>
       <c r="AB16" s="25"/>
     </row>
-    <row r="17" ht="14.4" spans="1:28">
+    <row r="17" spans="1:28">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -2923,7 +2947,7 @@
       <c r="AA17" s="25"/>
       <c r="AB17" s="25"/>
     </row>
-    <row r="18" ht="14.4" spans="1:28">
+    <row r="18" spans="1:28">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -2953,7 +2977,7 @@
       <c r="AA18" s="25"/>
       <c r="AB18" s="25"/>
     </row>
-    <row r="19" ht="14.4" spans="1:28">
+    <row r="19" spans="1:28">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2983,7 +3007,7 @@
       <c r="AA19" s="25"/>
       <c r="AB19" s="25"/>
     </row>
-    <row r="20" ht="14.4" spans="1:28">
+    <row r="20" spans="1:28">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -3013,7 +3037,7 @@
       <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
     </row>
-    <row r="21" ht="14.4" spans="1:28">
+    <row r="21" spans="1:28">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -3043,7 +3067,7 @@
       <c r="AA21" s="25"/>
       <c r="AB21" s="25"/>
     </row>
-    <row r="22" ht="14.4" spans="1:28">
+    <row r="22" spans="1:28">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -3073,7 +3097,7 @@
       <c r="AA22" s="25"/>
       <c r="AB22" s="25"/>
     </row>
-    <row r="23" ht="14.4" spans="1:28">
+    <row r="23" spans="1:28">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -3103,7 +3127,7 @@
       <c r="AA23" s="25"/>
       <c r="AB23" s="25"/>
     </row>
-    <row r="24" ht="14.4" spans="1:28">
+    <row r="24" spans="1:28">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -3133,7 +3157,7 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="25"/>
     </row>
-    <row r="25" ht="14.4" spans="1:28">
+    <row r="25" spans="1:28">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -3163,7 +3187,7 @@
       <c r="AA25" s="25"/>
       <c r="AB25" s="25"/>
     </row>
-    <row r="26" ht="14.4" spans="1:28">
+    <row r="26" spans="1:28">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -3193,7 +3217,7 @@
       <c r="AA26" s="25"/>
       <c r="AB26" s="25"/>
     </row>
-    <row r="27" ht="14.4" spans="1:28">
+    <row r="27" spans="1:28">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -3223,7 +3247,7 @@
       <c r="AA27" s="25"/>
       <c r="AB27" s="25"/>
     </row>
-    <row r="28" ht="14.4" spans="1:28">
+    <row r="28" spans="1:28">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -3253,7 +3277,7 @@
       <c r="AA28" s="25"/>
       <c r="AB28" s="25"/>
     </row>
-    <row r="29" ht="14.4" spans="1:28">
+    <row r="29" spans="1:28">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -3283,7 +3307,7 @@
       <c r="AA29" s="25"/>
       <c r="AB29" s="25"/>
     </row>
-    <row r="30" ht="14.4" spans="1:28">
+    <row r="30" spans="1:28">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -3313,7 +3337,7 @@
       <c r="AA30" s="25"/>
       <c r="AB30" s="25"/>
     </row>
-    <row r="31" ht="14.4" spans="1:28">
+    <row r="31" spans="1:28">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -3343,7 +3367,7 @@
       <c r="AA31" s="25"/>
       <c r="AB31" s="25"/>
     </row>
-    <row r="32" ht="14.4" spans="1:28">
+    <row r="32" spans="1:28">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -3373,7 +3397,7 @@
       <c r="AA32" s="25"/>
       <c r="AB32" s="25"/>
     </row>
-    <row r="33" ht="14.4" spans="1:28">
+    <row r="33" spans="1:28">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -3403,7 +3427,7 @@
       <c r="AA33" s="25"/>
       <c r="AB33" s="25"/>
     </row>
-    <row r="34" ht="14.4" spans="1:28">
+    <row r="34" spans="1:28">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -3433,7 +3457,7 @@
       <c r="AA34" s="25"/>
       <c r="AB34" s="25"/>
     </row>
-    <row r="35" ht="14.4" spans="1:28">
+    <row r="35" spans="1:28">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -3463,7 +3487,7 @@
       <c r="AA35" s="25"/>
       <c r="AB35" s="25"/>
     </row>
-    <row r="36" ht="14.4" spans="1:28">
+    <row r="36" spans="1:28">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -3493,7 +3517,7 @@
       <c r="AA36" s="25"/>
       <c r="AB36" s="25"/>
     </row>
-    <row r="37" ht="14.4" spans="1:28">
+    <row r="37" spans="1:28">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -3523,7 +3547,7 @@
       <c r="AA37" s="25"/>
       <c r="AB37" s="25"/>
     </row>
-    <row r="38" ht="14.4" spans="1:28">
+    <row r="38" spans="1:28">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -3553,7 +3577,7 @@
       <c r="AA38" s="25"/>
       <c r="AB38" s="25"/>
     </row>
-    <row r="39" ht="14.4" spans="1:28">
+    <row r="39" spans="1:28">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -3583,7 +3607,7 @@
       <c r="AA39" s="25"/>
       <c r="AB39" s="25"/>
     </row>
-    <row r="40" ht="14.4" spans="1:28">
+    <row r="40" spans="1:28">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -3613,7 +3637,7 @@
       <c r="AA40" s="25"/>
       <c r="AB40" s="25"/>
     </row>
-    <row r="41" ht="14.4" spans="1:28">
+    <row r="41" spans="1:28">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -3643,7 +3667,7 @@
       <c r="AA41" s="25"/>
       <c r="AB41" s="25"/>
     </row>
-    <row r="42" ht="14.4" spans="1:28">
+    <row r="42" spans="1:28">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -3673,7 +3697,7 @@
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
     </row>
-    <row r="43" ht="14.4" spans="1:28">
+    <row r="43" spans="1:28">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -3703,7 +3727,7 @@
       <c r="AA43" s="25"/>
       <c r="AB43" s="25"/>
     </row>
-    <row r="44" ht="14.4" spans="1:28">
+    <row r="44" spans="1:28">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -3733,7 +3757,7 @@
       <c r="AA44" s="25"/>
       <c r="AB44" s="25"/>
     </row>
-    <row r="45" ht="14.4" spans="1:28">
+    <row r="45" spans="1:28">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -3763,7 +3787,7 @@
       <c r="AA45" s="25"/>
       <c r="AB45" s="25"/>
     </row>
-    <row r="46" ht="14.4" spans="1:28">
+    <row r="46" spans="1:28">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -3793,7 +3817,7 @@
       <c r="AA46" s="25"/>
       <c r="AB46" s="25"/>
     </row>
-    <row r="47" ht="14.4" spans="1:28">
+    <row r="47" spans="1:28">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -3823,7 +3847,7 @@
       <c r="AA47" s="25"/>
       <c r="AB47" s="25"/>
     </row>
-    <row r="48" ht="14.4" spans="1:28">
+    <row r="48" spans="1:28">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -3853,7 +3877,7 @@
       <c r="AA48" s="25"/>
       <c r="AB48" s="25"/>
     </row>
-    <row r="49" ht="14.4" spans="1:28">
+    <row r="49" spans="1:28">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -3883,7 +3907,7 @@
       <c r="AA49" s="25"/>
       <c r="AB49" s="25"/>
     </row>
-    <row r="50" ht="14.4" spans="1:28">
+    <row r="50" spans="1:28">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -3913,7 +3937,7 @@
       <c r="AA50" s="25"/>
       <c r="AB50" s="25"/>
     </row>
-    <row r="51" ht="14.4" spans="1:28">
+    <row r="51" spans="1:28">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -3943,7 +3967,7 @@
       <c r="AA51" s="25"/>
       <c r="AB51" s="25"/>
     </row>
-    <row r="52" ht="14.4" spans="1:28">
+    <row r="52" spans="1:28">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -3973,7 +3997,7 @@
       <c r="AA52" s="25"/>
       <c r="AB52" s="25"/>
     </row>
-    <row r="53" ht="14.4" spans="1:28">
+    <row r="53" spans="1:28">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -4003,7 +4027,7 @@
       <c r="AA53" s="25"/>
       <c r="AB53" s="25"/>
     </row>
-    <row r="54" ht="14.4" spans="1:28">
+    <row r="54" spans="1:28">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -4033,7 +4057,7 @@
       <c r="AA54" s="25"/>
       <c r="AB54" s="25"/>
     </row>
-    <row r="55" ht="14.4" spans="1:28">
+    <row r="55" spans="1:28">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -4063,7 +4087,7 @@
       <c r="AA55" s="25"/>
       <c r="AB55" s="25"/>
     </row>
-    <row r="56" ht="14.4" spans="1:28">
+    <row r="56" spans="1:28">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -4093,7 +4117,7 @@
       <c r="AA56" s="25"/>
       <c r="AB56" s="25"/>
     </row>
-    <row r="57" ht="14.4" spans="1:28">
+    <row r="57" spans="1:28">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -4123,7 +4147,7 @@
       <c r="AA57" s="25"/>
       <c r="AB57" s="25"/>
     </row>
-    <row r="58" ht="14.4" spans="1:28">
+    <row r="58" spans="1:28">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -4228,7 +4252,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="92.4166666666667" customWidth="1"/>
@@ -4236,33 +4260,33 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -4270,16 +4294,16 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -4287,42 +4311,42 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4337,10 +4361,10 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="37.25" customWidth="1"/>
@@ -4355,16 +4379,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
@@ -4385,31 +4409,31 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:12">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>47</v>
@@ -4417,10 +4441,10 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -4431,18 +4455,20 @@
       <c r="G3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="L3" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:12">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -4453,18 +4479,20 @@
       <c r="G4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="L4" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:12">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -4475,18 +4503,20 @@
       <c r="G5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="L5" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -4497,15 +4527,17 @@
       <c r="G6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -4516,15 +4548,17 @@
       <c r="G7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:9">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
@@ -4535,15 +4569,17 @@
       <c r="G8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
@@ -4554,15 +4590,17 @@
       <c r="G9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:9">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
@@ -4573,15 +4611,17 @@
       <c r="G10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:9">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
@@ -4592,15 +4632,17 @@
       <c r="G11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" ht="14.4" spans="1:9">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E12" s="7">
         <v>1</v>
@@ -4611,15 +4653,17 @@
       <c r="G12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" ht="14.4" spans="1:9">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -4630,15 +4674,17 @@
       <c r="G13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" ht="14.4" spans="1:9">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E14" s="7">
         <v>1</v>
@@ -4649,7 +4695,9 @@
       <c r="G14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="5:6">
@@ -4679,7 +4727,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="26.6666666666667" customWidth="1"/>
@@ -4696,65 +4744,65 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:9">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4780,10 +4828,10 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:9">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4791,10 +4839,10 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1"/>
@@ -4821,7 +4869,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
     <col min="3" max="4" width="29.0833333333333" customWidth="1"/>
@@ -4833,33 +4881,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" ht="41.4" spans="1:4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" ht="42" spans="1:4">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1"/>
@@ -4885,11 +4933,11 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="37.25" customWidth="1"/>
-    <col min="4" max="4" width="29.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="29.775" customWidth="1"/>
     <col min="6" max="6" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -4898,100 +4946,100 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
         <v>145</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5009,11 +5057,11 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="22.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="46.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="22.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="46.4416666666667" customWidth="1"/>
     <col min="5" max="5" width="9" style="12"/>
   </cols>
   <sheetData>
@@ -5022,13 +5070,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
@@ -5037,75 +5085,75 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1"/>
@@ -5123,11 +5171,11 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="50.3333333333333" customWidth="1"/>
@@ -5138,45 +5186,71 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="25.5" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" ht="25.5" customHeight="1"/>
-    <row r="5" ht="25.5" customHeight="1"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" spans="1:4">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5" customHeight="1" spans="1:4">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" t="s">
+        <v>188</v>
+      </c>
+    </row>
     <row r="6" ht="25.5" customHeight="1"/>
     <row r="7" ht="25.5" customHeight="1"/>
     <row r="8" ht="25.5" customHeight="1"/>
@@ -5184,6 +5258,11 @@
     <row r="10" ht="25.5" customHeight="1"/>
     <row r="11" ht="25.5" customHeight="1"/>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C100">
+      <formula1>"Trap,Weapon"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -5198,19 +5277,19 @@
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.962962962963" customWidth="1"/>
-    <col min="4" max="4" width="14.6851851851852" customWidth="1"/>
-    <col min="10" max="10" width="13.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="18.6944444444444" customWidth="1"/>
+    <col min="3" max="3" width="20.9666666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.6833333333333" customWidth="1"/>
+    <col min="10" max="10" width="13.225" customWidth="1"/>
+    <col min="11" max="11" width="18.6916666666667" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="22.0925925925926" customWidth="1"/>
-    <col min="14" max="14" width="25.5555555555556" customWidth="1"/>
-    <col min="15" max="15" width="16.9444444444444" customWidth="1"/>
-    <col min="16" max="16" width="24.0277777777778" customWidth="1"/>
-    <col min="17" max="17" width="21.3981481481481" customWidth="1"/>
+    <col min="13" max="13" width="22.0916666666667" customWidth="1"/>
+    <col min="14" max="14" width="25.5583333333333" customWidth="1"/>
+    <col min="15" max="15" width="16.9416666666667" customWidth="1"/>
+    <col min="16" max="16" width="24.025" customWidth="1"/>
+    <col min="17" max="17" width="21.4" customWidth="1"/>
     <col min="19" max="19" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -5219,52 +5298,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="S1" s="9"/>
       <c r="T1" s="10" t="s">
@@ -5273,55 +5352,55 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:20">
       <c r="A2" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="R2" s="8"/>
       <c r="T2" s="11" t="s">
@@ -5330,22 +5409,22 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:20">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -5354,27 +5433,27 @@
         <v>30</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:20">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -5383,27 +5462,27 @@
         <v>2</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:20">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -5415,22 +5494,22 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -5441,22 +5520,22 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -5483,7 +5562,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="8.91666666666667" customWidth="1"/>
@@ -5495,30 +5574,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C2" s="5">
         <v>100</v>
@@ -5538,47 +5617,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RefData/Excels/kidgame_game_data_config.xlsx
+++ b/Assets/RefData/Excels/kidgame_game_data_config.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="290">
   <si>
     <t>id</t>
   </si>
@@ -197,6 +197,9 @@
     <t>Immediate</t>
   </si>
   <si>
+    <t>TimeDelay;ExternalEvent</t>
+  </si>
+  <si>
     <t>CommonInteract</t>
   </si>
   <si>
@@ -236,10 +239,19 @@
     <t>向着车头的方向前进，撞到敌人之后会使其跌倒并扣除x点精神值，撞到墙了陷阱也会停下</t>
   </si>
   <si>
-    <t>Immediate;ExternalEvent</t>
+    <t>ExternalEvent</t>
   </si>
   <si>
     <t>3.陷阱图标路径一般是GUI/Icon/Trap/xxxx,可以去unity里面一下名字替换xxxx</t>
+  </si>
+  <si>
+    <t>T004</t>
+  </si>
+  <si>
+    <t>锈铁捕人夹</t>
+  </si>
+  <si>
+    <t>使硬直一秒，扣除x点精神值，使敌人增加流血效果</t>
   </si>
   <si>
     <t>materialName</t>
@@ -489,6 +501,24 @@
     <t>一管白胶</t>
   </si>
   <si>
+    <t>M013</t>
+  </si>
+  <si>
+    <t>捕鼠夹</t>
+  </si>
+  <si>
+    <t>M014</t>
+  </si>
+  <si>
+    <t>雕像</t>
+  </si>
+  <si>
+    <t>M015</t>
+  </si>
+  <si>
+    <t>锈铁丝</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -593,6 +623,9 @@
     <t>Tip:</t>
   </si>
   <si>
+    <t>J001</t>
+  </si>
+  <si>
     <t>洗衣机</t>
   </si>
   <si>
@@ -602,25 +635,28 @@
     <t>1.这里配的所有信息只是为了一个图鉴介绍作用，不会实际用在地图生成，地图生成相关在地图制作时一起在游戏内手动配置</t>
   </si>
   <si>
+    <t>J002</t>
+  </si>
+  <si>
     <t>摇摇木马</t>
   </si>
   <si>
     <t>可作为陷阱装置的载体</t>
   </si>
   <si>
-    <t>F003</t>
+    <t>J003</t>
   </si>
   <si>
     <t>秋千</t>
   </si>
   <si>
-    <t>F004</t>
+    <t>J004</t>
   </si>
   <si>
     <t>跷跷板</t>
   </si>
   <si>
-    <t>F005</t>
+    <t>J005</t>
   </si>
   <si>
     <t>灯的开关</t>
@@ -629,21 +665,6 @@
     <t>与开关互动控制房间的明暗</t>
   </si>
   <si>
-    <t>F006</t>
-  </si>
-  <si>
-    <t>F007</t>
-  </si>
-  <si>
-    <t>F008</t>
-  </si>
-  <si>
-    <t>F009</t>
-  </si>
-  <si>
-    <t>F010</t>
-  </si>
-  <si>
     <t>roomType</t>
   </si>
   <si>
@@ -662,79 +683,94 @@
     <t>#包含的材料列表(散落的）</t>
   </si>
   <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>Corridor</t>
+  </si>
+  <si>
+    <t>B002</t>
+  </si>
+  <si>
+    <t>Bedroom</t>
+  </si>
+  <si>
+    <t>B003</t>
+  </si>
+  <si>
+    <t>LivingRoom</t>
+  </si>
+  <si>
+    <t>B004</t>
+  </si>
+  <si>
+    <t>DinningRoom</t>
+  </si>
+  <si>
+    <t>B005</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>B006</t>
+  </si>
+  <si>
+    <t>NurseryRoom</t>
+  </si>
+  <si>
+    <t>B007</t>
+  </si>
+  <si>
+    <t>BathRoom</t>
+  </si>
+  <si>
+    <t>targetId</t>
+  </si>
+  <si>
+    <t>recipeType</t>
+  </si>
+  <si>
+    <t>materialList</t>
+  </si>
+  <si>
+    <t>#配方id(String)</t>
+  </si>
+  <si>
+    <t>#合成物品id(String)</t>
+  </si>
+  <si>
+    <t>#合成物品类型(Enum)</t>
+  </si>
+  <si>
+    <t>#合成材料列表 M001:2表示两个M001</t>
+  </si>
+  <si>
     <t>R001</t>
   </si>
   <si>
-    <t>Corridor</t>
+    <t>Trap</t>
+  </si>
+  <si>
+    <t>M001:1;M003:1</t>
   </si>
   <si>
     <t>R002</t>
   </si>
   <si>
-    <t>Bedroom</t>
+    <t>M001:3;M003:1</t>
   </si>
   <si>
     <t>R003</t>
   </si>
   <si>
-    <t>LivingRoom</t>
+    <t>M005:1;M010:1</t>
   </si>
   <si>
     <t>R004</t>
   </si>
   <si>
-    <t>DinningRoom</t>
-  </si>
-  <si>
-    <t>R005</t>
-  </si>
-  <si>
-    <t>Study</t>
-  </si>
-  <si>
-    <t>R006</t>
-  </si>
-  <si>
-    <t>NurseryRoom</t>
-  </si>
-  <si>
-    <t>R007</t>
-  </si>
-  <si>
-    <t>BathRoom</t>
-  </si>
-  <si>
-    <t>targetId</t>
-  </si>
-  <si>
-    <t>recipeType</t>
-  </si>
-  <si>
-    <t>materialList</t>
-  </si>
-  <si>
-    <t>#配方id(String)</t>
-  </si>
-  <si>
-    <t>#合成物品id(String)</t>
-  </si>
-  <si>
-    <t>#合成物品类型(Enum)</t>
-  </si>
-  <si>
-    <t>#合成材料列表 M001:2表示两个M001</t>
-  </si>
-  <si>
-    <t>Trap</t>
-  </si>
-  <si>
-    <t>M001:1;M003:1</t>
-  </si>
-  <si>
-    <t>M001:3;M003:1</t>
-  </si>
-  <si>
-    <t>M005:1;M010:1</t>
+    <t>M013:1;M015:2</t>
   </si>
   <si>
     <t>buffName</t>
@@ -896,9 +932,6 @@
     <t>#受击时的效果模块</t>
   </si>
   <si>
-    <t>B001</t>
-  </si>
-  <si>
     <t>blind</t>
   </si>
   <si>
@@ -912,9 +945,6 @@
   </si>
   <si>
     <t>1.MoudlePath配置路径一般是Game/BuffModuleData/xxxx,可以去unity里面看一下名字替换xxxx,没有就不用填</t>
-  </si>
-  <si>
-    <t>B002</t>
   </si>
   <si>
     <t xml:space="preserve">   fallingdown</t>
@@ -931,9 +961,6 @@
     <t>2.Buff图标路径一般是GUI/Icon/Buff/xxxx,可以去unity里面看一下名字替换xxxx</t>
   </si>
   <si>
-    <t>B003</t>
-  </si>
-  <si>
     <t xml:space="preserve">   bleed</t>
   </si>
   <si>
@@ -946,9 +973,6 @@
     <t>sign|count</t>
   </si>
   <si>
-    <t>B004</t>
-  </si>
-  <si>
     <t xml:space="preserve">    dizzy</t>
   </si>
   <si>
@@ -956,9 +980,6 @@
   </si>
   <si>
     <t>icon/buff/dizzy</t>
-  </si>
-  <si>
-    <t>B005</t>
   </si>
   <si>
     <t xml:space="preserve">   coma</t>
@@ -2164,8 +2185,8 @@
   <sheetPr/>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2383,7 +2404,7 @@
         <v>-1</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" s="14">
         <v>1</v>
@@ -2395,33 +2416,33 @@
         <v>1</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="T3" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="U3" s="14"/>
       <c r="V3" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W3" s="31">
         <v>10</v>
       </c>
       <c r="X3" s="32"/>
       <c r="Y3" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z3" s="25"/>
       <c r="AA3" s="25"/>
@@ -2429,13 +2450,13 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:28">
       <c r="A4" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="14">
@@ -2448,7 +2469,7 @@
         <v>40</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>52</v>
@@ -2457,7 +2478,7 @@
         <v>-1</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L4" s="14">
         <v>1</v>
@@ -2469,33 +2490,33 @@
         <v>1</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="T4" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="U4" s="14"/>
       <c r="V4" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W4" s="31">
         <v>10</v>
       </c>
       <c r="X4" s="32"/>
       <c r="Y4" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z4" s="25"/>
       <c r="AA4" s="25"/>
@@ -2503,13 +2524,13 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:28">
       <c r="A5" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="14">
@@ -2531,7 +2552,7 @@
         <v>-1</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" s="14">
         <v>1</v>
@@ -2543,62 +2564,104 @@
         <v>1</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="T5" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="U5" s="14"/>
       <c r="V5" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W5" s="31">
         <v>5</v>
       </c>
       <c r="X5" s="32"/>
       <c r="Y5" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z5" s="25"/>
       <c r="AA5" s="25"/>
       <c r="AB5" s="25"/>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="A6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="D6" s="19"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>40</v>
+      </c>
+      <c r="G6" s="20">
+        <v>40</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="14">
+        <v>1</v>
+      </c>
+      <c r="M6" s="14">
+        <v>2</v>
+      </c>
+      <c r="N6" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="U6" s="14"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
+      <c r="V6" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" s="30">
+        <v>5</v>
+      </c>
       <c r="X6" s="33"/>
       <c r="Y6" s="11"/>
       <c r="Z6" s="25"/>
@@ -4260,33 +4323,33 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="13" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -4294,16 +4357,16 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -4311,42 +4374,42 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4361,7 +4424,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4379,16 +4442,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
@@ -4409,31 +4472,31 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:12">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>47</v>
@@ -4441,276 +4504,324 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I3" s="7"/>
       <c r="L3" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:12">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I4" s="7"/>
       <c r="L4" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:12">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I5" s="7"/>
       <c r="L5" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:9">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:9">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:9">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:9">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E12" s="7">
         <v>1</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E14" s="7">
         <v>1</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="5:6">
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="5:6">
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4744,65 +4855,65 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:9">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4828,10 +4939,10 @@
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:9">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4839,10 +4950,10 @@
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1"/>
@@ -4881,33 +4992,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:4">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1"/>
@@ -4930,7 +5041,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -4946,102 +5057,82 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A11" t="s">
-        <v>157</v>
-      </c>
-    </row>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" ht="25.5" customHeight="1"/>
+    <row r="8" ht="25.5" customHeight="1"/>
+    <row r="9" ht="25.5" customHeight="1"/>
+    <row r="10" ht="25.5" customHeight="1"/>
+    <row r="11" ht="25.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5054,7 +5145,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A3" sqref="A3:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5070,13 +5161,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
@@ -5085,75 +5176,75 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1"/>
@@ -5172,7 +5263,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -5186,72 +5277,85 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="25.5" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" ht="25.5" customHeight="1"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" ht="25.5" customHeight="1" spans="1:4">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+    </row>
     <row r="7" ht="25.5" customHeight="1"/>
     <row r="8" ht="25.5" customHeight="1"/>
     <row r="9" ht="25.5" customHeight="1"/>
@@ -5298,52 +5402,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="S1" s="9"/>
       <c r="T1" s="10" t="s">
@@ -5352,55 +5456,55 @@
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:20">
       <c r="A2" s="7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="R2" s="8"/>
       <c r="T2" s="11" t="s">
@@ -5409,22 +5513,22 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:20">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -5433,27 +5537,27 @@
         <v>30</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:20">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -5462,27 +5566,27 @@
         <v>2</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:20">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -5494,22 +5598,22 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:9">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -5520,22 +5624,22 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:9">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -5574,30 +5678,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C2" s="5">
         <v>100</v>
@@ -5617,47 +5721,47 @@
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RefData/Excels/kidgame_game_data_config.xlsx
+++ b/Assets/RefData/Excels/kidgame_game_data_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="905"/>
+    <workbookView windowWidth="25600" windowHeight="12790" tabRatio="905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TrapDataList" sheetId="2" r:id="rId1"/>
@@ -2185,7 +2185,7 @@
   <sheetPr/>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
@@ -4834,8 +4834,8 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4943,6 +4943,24 @@
       </c>
       <c r="B4" t="s">
         <v>136</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
